--- a/final 완성된 서류/명령도표(게시판, 관리자페이지).xlsx
+++ b/final 완성된 서류/명령도표(게시판, 관리자페이지).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="367">
   <si>
     <t>명령 도표 기획문서안</t>
   </si>
@@ -54,9 +54,6 @@
     <t>컨트롤러 / 메서드 이름</t>
   </si>
   <si>
-    <t>서비스로직 / 메서드 이름</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -374,11 +371,6 @@
   </si>
   <si>
     <t>noticeContent()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainBbs.model.MainBbsDTO.java
-mainBbs.model.MainBbsDTO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4894,92 +4886,532 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>adminSql.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminAllMemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminAllMemberIDSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMemberOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminNormalBlackMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminBlackNormalMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminBMainBbsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBbsRevise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBbsWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbsContet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqRevise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faqSql.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainBbs.model.MainBbsDTO.java
+mainBbs.model.MainBbsDAO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플래너</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRecommend.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planContent.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planList.jsp</t>
+  </si>
+  <si>
+    <t>planSaveResult.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdate.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planWrite.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendImgCk.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routeSearch.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routesearch.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRecommend.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdata.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planwrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdataForm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planwriteForm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendImgCk.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendImg.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planList()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planContentForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdata()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plannerWrite()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdataForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plannerWriteForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendImgCk()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recommendImg()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReply()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getReply()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routeSearchForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   PlanController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>admin.model.AdminDTO.java
 admin.model.AdminDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adminSql.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminAllMemberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminAllMemberIDSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminMemberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminMemberOut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminNormalBlackMove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminBlackNormalMove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminBMainBbsList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusChange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainBbsRevise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mainBbsWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbsContet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqRevise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>faqSql.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReportProcess</t>
+    <t>plan.model.PlanDAO.java 
+plan.model.PlanDTO.java 
+member.model.MemberDAO.java
+member.model.MemberDTO.java
+Preply.model.PReplyDAO.java
+Preply.model.PReplyDTO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planSql.xml
+preplySql.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planSql.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getRecommend()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanRecommendCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlanReadNumUp
+planContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planUpdate
+planUpdateWithImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ckRecommend
+addRecommend
+delRecommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ckRecommend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPReply
+getPReply
+getUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPReply
+getUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getPlanTotalCnt
+planList
+memberINFOwithIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> planner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">planner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본문</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">planner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">planner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">planner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">planner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5584,23 +6016,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -5613,7 +6041,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5707,35 +6135,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5747,223 +6151,244 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6310,10 +6735,10 @@
   <dimension ref="A1:P273"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomRight" activeCell="C193" sqref="C193:C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
@@ -6335,152 +6760,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="M1" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="76"/>
+      <c r="M1" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
       <c r="M2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="M3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="M3" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="100" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
-      <c r="M4" s="88" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="86"/>
+      <c r="M4" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="16" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="89"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
     </row>
     <row r="6" spans="1:16">
       <c r="M6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>139</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="M7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75">
@@ -6496,3593 +6921,3441 @@
       <c r="D11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="50"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="83"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="20"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="20"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="84"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="25"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="25"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="80"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="26"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="26"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="80"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="25"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="25"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="24"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="24"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.95" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="87"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.95" customHeight="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="8"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="8"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.95" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="86"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.95" customHeight="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="22"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="22"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="65"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="60"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="64"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="4"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="65"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="51"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="70"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="60"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="60"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="71"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="61"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="61" t="s">
+      <c r="G22" s="98"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="C23" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A24" s="109"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A25" s="109"/>
+      <c r="B25" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="59" t="s">
+      <c r="C25" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="59" t="s">
+      <c r="F25" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A26" s="110"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:13" ht="25.5">
+      <c r="A27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A30" s="60"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A31" s="60"/>
+      <c r="B31" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="70"/>
+      <c r="F31" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A33" s="60"/>
+      <c r="B33" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="70"/>
+      <c r="F33" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="60"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A35" s="60"/>
+      <c r="B35" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="70"/>
+      <c r="F35" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="56"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="57"/>
-    </row>
-    <row r="27" spans="1:15" ht="25.5">
-      <c r="A27" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="58" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="56"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="55" t="s">
+      <c r="I35" s="43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="56"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="55" t="s">
+    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="56"/>
-    </row>
-    <row r="35" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="K35" s="55" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A38" s="60"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A39" s="60"/>
+      <c r="B39" s="47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="56"/>
-    </row>
-    <row r="37" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="45" t="s">
+      <c r="C39" s="48"/>
+      <c r="D39" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A41" s="60"/>
+      <c r="B41" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="45" t="s">
+      <c r="C41" s="48"/>
+      <c r="D41" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E41" s="48"/>
+      <c r="F41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A42" s="60"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A43" s="60"/>
+      <c r="B43" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A45" s="60"/>
+      <c r="B45" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A46" s="60"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A47" s="60"/>
+      <c r="B47" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="45" t="s">
+      <c r="F47" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A48" s="61"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="44"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A50" s="60"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A51" s="60"/>
+      <c r="B51" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A52" s="60"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A53" s="60"/>
+      <c r="B53" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A54" s="60"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A55" s="60"/>
+      <c r="B55" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A56" s="60"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A57" s="60"/>
+      <c r="B57" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="70"/>
+      <c r="D57" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A58" s="60"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="46"/>
+    </row>
+    <row r="59" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A59" s="60"/>
+      <c r="B59" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="70"/>
+      <c r="D59" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A60" s="60"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="46"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A61" s="60"/>
+      <c r="B61" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="70"/>
+      <c r="D61" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="52" t="s">
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A62" s="60"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A63" s="60"/>
+      <c r="B63" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="70"/>
+      <c r="D63" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A64" s="60"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A65" s="60"/>
+      <c r="B65" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A66" s="60"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="46"/>
+    </row>
+    <row r="67" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A67" s="60"/>
+      <c r="B67" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="70"/>
+      <c r="D67" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="56"/>
-    </row>
-    <row r="39" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="56"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A41" s="51"/>
-      <c r="B41" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="56"/>
-    </row>
-    <row r="43" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="J43" s="45" t="s">
+      <c r="H67" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="K43" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="56"/>
-    </row>
-    <row r="45" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="56"/>
-    </row>
-    <row r="47" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="K47" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="57"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="J49" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="K49" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="56"/>
-    </row>
-    <row r="51" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="55" t="s">
+    </row>
+    <row r="68" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A68" s="61"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="44"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="59" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="56"/>
-    </row>
-    <row r="53" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="55" t="s">
+      <c r="B69" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A54" s="51"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="56"/>
-    </row>
-    <row r="55" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A55" s="51"/>
-      <c r="B55" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="53"/>
-      <c r="F55" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="56"/>
-    </row>
-    <row r="57" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A57" s="51"/>
-      <c r="B57" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J57" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="K57" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="56"/>
-    </row>
-    <row r="59" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A59" s="51"/>
-      <c r="B59" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="53"/>
-      <c r="F59" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A60" s="51"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="56"/>
-    </row>
-    <row r="61" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A62" s="51"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="56"/>
-    </row>
-    <row r="63" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A63" s="51"/>
-      <c r="B63" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="J63" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="K63" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="56"/>
-    </row>
-    <row r="65" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A65" s="51"/>
-      <c r="B65" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="56"/>
-    </row>
-    <row r="67" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A67" s="51"/>
-      <c r="B67" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="J67" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="K67" s="55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A68" s="60"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="57"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="50" t="s">
+      <c r="D69" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H69" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A70" s="60"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="46"/>
+    </row>
+    <row r="71" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A71" s="60"/>
+      <c r="B71" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="59" t="s">
+      <c r="D71" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A72" s="60"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="46"/>
+    </row>
+    <row r="73" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A73" s="60"/>
+      <c r="B73" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A74" s="60"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="46"/>
+    </row>
+    <row r="75" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A75" s="60"/>
+      <c r="B75" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A76" s="61"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="44"/>
+    </row>
+    <row r="77" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A77" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="H77" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="I77" s="55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A78" s="60"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="46"/>
+    </row>
+    <row r="79" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A79" s="60"/>
+      <c r="B79" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="48"/>
+      <c r="F79" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="G79" s="51"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A80" s="60"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="46"/>
+    </row>
+    <row r="81" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A81" s="60"/>
+      <c r="B81" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C69" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="J69" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="K69" s="58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A70" s="51"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="56"/>
-    </row>
-    <row r="71" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C71" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" s="53"/>
-      <c r="F71" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="55" t="s">
+      <c r="C81" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G81" s="51"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A82" s="60"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="46"/>
+    </row>
+    <row r="83" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A83" s="60"/>
+      <c r="B83" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="51"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A84" s="60"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="46"/>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A85" s="60"/>
+      <c r="B85" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="G85" s="51"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A86" s="60"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="46"/>
+    </row>
+    <row r="87" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A87" s="60"/>
+      <c r="B87" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="51"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A88" s="60"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="46"/>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A89" s="60"/>
+      <c r="B89" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="48"/>
+      <c r="F89" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="G89" s="51"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A90" s="60"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="46"/>
+    </row>
+    <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1">
+      <c r="A91" s="60"/>
+      <c r="B91" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="48"/>
+      <c r="F91" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G91" s="51"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A92" s="60"/>
+      <c r="B92" s="54"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="46"/>
+    </row>
+    <row r="93" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A93" s="60"/>
+      <c r="B93" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G93" s="51"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A94" s="60"/>
+      <c r="B94" s="54"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="46"/>
+    </row>
+    <row r="95" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A95" s="60"/>
+      <c r="B95" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="51"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A96" s="60"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="46"/>
+    </row>
+    <row r="97" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A97" s="60"/>
+      <c r="B97" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E97" s="48"/>
+      <c r="F97" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="51"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A98" s="60"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="48"/>
+      <c r="I98" s="46"/>
+    </row>
+    <row r="99" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A99" s="60"/>
+      <c r="B99" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E99" s="48"/>
+      <c r="F99" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G99" s="51"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A100" s="60"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="54"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="46"/>
+    </row>
+    <row r="101" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A101" s="60"/>
+      <c r="B101" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E101" s="48"/>
+      <c r="F101" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G101" s="51"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A102" s="60"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="46"/>
+    </row>
+    <row r="103" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A103" s="60"/>
+      <c r="B103" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G103" s="51"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A104" s="60"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="46"/>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A105" s="60"/>
+      <c r="B105" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D105" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G105" s="51"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A106" s="60"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="48"/>
+      <c r="I106" s="46"/>
+    </row>
+    <row r="107" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A107" s="60"/>
+      <c r="B107" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" s="48"/>
+      <c r="F107" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G107" s="51"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A108" s="60"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="46"/>
+    </row>
+    <row r="109" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A109" s="60"/>
+      <c r="B109" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="48"/>
+      <c r="F109" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="51"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A110" s="60"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="46"/>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A111" s="60"/>
+      <c r="B111" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" s="48"/>
+      <c r="F111" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G111" s="51"/>
+      <c r="H111" s="48"/>
+      <c r="I111" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A112" s="60"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="46"/>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A113" s="60"/>
+      <c r="B113" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" s="48"/>
+      <c r="F113" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G113" s="51"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A114" s="60"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="46"/>
+    </row>
+    <row r="115" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A115" s="60"/>
+      <c r="B115" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E115" s="48"/>
+      <c r="F115" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G115" s="51"/>
+      <c r="H115" s="48"/>
+      <c r="I115" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A116" s="60"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="48"/>
+      <c r="I116" s="46"/>
+    </row>
+    <row r="117" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A117" s="60"/>
+      <c r="B117" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="48"/>
+      <c r="F117" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G117" s="51"/>
+      <c r="H117" s="48"/>
+      <c r="I117" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A118" s="60"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="46"/>
+    </row>
+    <row r="119" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A119" s="60"/>
+      <c r="B119" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D119" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="48"/>
+      <c r="F119" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G119" s="51"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A120" s="60"/>
+      <c r="B120" s="54"/>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="54"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="46"/>
+    </row>
+    <row r="121" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A121" s="60"/>
+      <c r="B121" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="48"/>
+      <c r="F121" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G121" s="51"/>
+      <c r="H121" s="48"/>
+      <c r="I121" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A122" s="60"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="48"/>
+      <c r="I122" s="46"/>
+    </row>
+    <row r="123" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A123" s="60"/>
+      <c r="B123" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D123" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="48"/>
+      <c r="F123" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G123" s="51"/>
+      <c r="H123" s="48"/>
+      <c r="I123" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A124" s="60"/>
+      <c r="B124" s="54"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="48"/>
+      <c r="I124" s="46"/>
+    </row>
+    <row r="125" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A125" s="60"/>
+      <c r="B125" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D125" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E125" s="48"/>
+      <c r="F125" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G125" s="51"/>
+      <c r="H125" s="48"/>
+      <c r="I125" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A126" s="60"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="48"/>
+      <c r="I126" s="46"/>
+    </row>
+    <row r="127" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A127" s="60"/>
+      <c r="B127" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D127" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E127" s="48"/>
+      <c r="F127" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G127" s="51"/>
+      <c r="H127" s="48"/>
+      <c r="I127" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A128" s="60"/>
+      <c r="B128" s="54"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="48"/>
+      <c r="I128" s="46"/>
+    </row>
+    <row r="129" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A129" s="60"/>
+      <c r="B129" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D129" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="48"/>
+      <c r="F129" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G129" s="51"/>
+      <c r="H129" s="48"/>
+      <c r="I129" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A130" s="60"/>
+      <c r="B130" s="54"/>
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="48"/>
+      <c r="I130" s="46"/>
+    </row>
+    <row r="131" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A131" s="60"/>
+      <c r="B131" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" s="48"/>
+      <c r="F131" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G131" s="51"/>
+      <c r="H131" s="48"/>
+      <c r="I131" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A132" s="60"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="48"/>
+      <c r="I132" s="46"/>
+    </row>
+    <row r="133" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A133" s="60"/>
+      <c r="B133" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E133" s="48"/>
+      <c r="F133" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G133" s="51"/>
+      <c r="H133" s="48"/>
+      <c r="I133" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A134" s="60"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="48"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="48"/>
+      <c r="I134" s="46"/>
+    </row>
+    <row r="135" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A135" s="60"/>
+      <c r="B135" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D135" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E135" s="48"/>
+      <c r="F135" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G135" s="51"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A136" s="60"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="48"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="48"/>
+      <c r="I136" s="46"/>
+    </row>
+    <row r="137" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A137" s="60"/>
+      <c r="B137" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" s="48"/>
+      <c r="F137" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G137" s="51"/>
+      <c r="H137" s="48"/>
+      <c r="I137" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A138" s="60"/>
+      <c r="B138" s="54"/>
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="48"/>
+      <c r="I138" s="46"/>
+    </row>
+    <row r="139" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A139" s="60"/>
+      <c r="B139" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D139" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E139" s="48"/>
+      <c r="F139" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G139" s="51"/>
+      <c r="H139" s="48"/>
+      <c r="I139" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A140" s="60"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="46"/>
+    </row>
+    <row r="141" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A141" s="60"/>
+      <c r="B141" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E141" s="48"/>
+      <c r="F141" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G141" s="51"/>
+      <c r="H141" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="I141" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A142" s="60"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="54"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="48"/>
+      <c r="I142" s="46"/>
+    </row>
+    <row r="143" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A143" s="60"/>
+      <c r="B143" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E143" s="48"/>
+      <c r="F143" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="G143" s="51"/>
+      <c r="H143" s="48"/>
+      <c r="I143" s="43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A144" s="60"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="48"/>
+      <c r="I144" s="46"/>
+    </row>
+    <row r="145" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A145" s="60"/>
+      <c r="B145" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D145" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="E145" s="48"/>
+      <c r="F145" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="G145" s="51"/>
+      <c r="H145" s="48"/>
+      <c r="I145" s="43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A146" s="60"/>
+      <c r="B146" s="54"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="48"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="48"/>
+      <c r="I146" s="46"/>
+    </row>
+    <row r="147" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A147" s="60"/>
+      <c r="B147" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="47" t="s">
+        <v>270</v>
+      </c>
+      <c r="E147" s="48"/>
+      <c r="F147" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G147" s="51"/>
+      <c r="H147" s="48"/>
+      <c r="I147" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A148" s="60"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="58"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="48"/>
+      <c r="I148" s="46"/>
+    </row>
+    <row r="149" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A149" s="60"/>
+      <c r="B149" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C149" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D149" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" s="48"/>
+      <c r="F149" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G149" s="51"/>
+      <c r="H149" s="48"/>
+      <c r="I149" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A150" s="60"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="46"/>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A151" s="60"/>
+      <c r="B151" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C151" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="E151" s="48"/>
+      <c r="F151" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="G151" s="51"/>
+      <c r="H151" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I151" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A152" s="60"/>
+      <c r="B152" s="57"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="48"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="46"/>
+    </row>
+    <row r="153" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A153" s="60"/>
+      <c r="B153" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C153" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="E153" s="48"/>
+      <c r="F153" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G153" s="51"/>
+      <c r="H153" s="47" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A72" s="51"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="56"/>
-    </row>
-    <row r="73" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A73" s="51"/>
-      <c r="B73" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="55" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A74" s="51"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="56"/>
-    </row>
-    <row r="75" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="53"/>
-      <c r="F75" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="K75" s="55" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A76" s="60"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="119"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="57"/>
-    </row>
-    <row r="77" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A77" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D77" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="F77" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="J77" s="59" t="s">
-        <v>286</v>
-      </c>
-      <c r="K77" s="58" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="56"/>
-    </row>
-    <row r="79" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="53"/>
-      <c r="F79" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="56"/>
-    </row>
-    <row r="81" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="E81" s="53"/>
-      <c r="F81" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="114"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="56"/>
-    </row>
-    <row r="83" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A83" s="51"/>
-      <c r="B83" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E83" s="53"/>
-      <c r="F83" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="114"/>
-      <c r="J83" s="53"/>
-      <c r="K83" s="55" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="53"/>
-      <c r="K84" s="56"/>
-    </row>
-    <row r="85" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A85" s="51"/>
-      <c r="B85" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="E85" s="53"/>
-      <c r="F85" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="55" t="s">
+      <c r="I153" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A154" s="60"/>
+      <c r="B154" s="54"/>
+      <c r="C154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="48"/>
+      <c r="I154" s="46"/>
+    </row>
+    <row r="155" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A155" s="60"/>
+      <c r="B155" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D155" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="E155" s="48"/>
+      <c r="F155" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="G155" s="51"/>
+      <c r="H155" s="48"/>
+      <c r="I155" s="43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A156" s="60"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="48"/>
+      <c r="I156" s="46"/>
+    </row>
+    <row r="157" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A157" s="60"/>
+      <c r="B157" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="E157" s="48"/>
+      <c r="F157" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G157" s="51"/>
+      <c r="H157" s="48"/>
+      <c r="I157" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A158" s="60"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="48"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="46"/>
+    </row>
+    <row r="159" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A159" s="60"/>
+      <c r="B159" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C159" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D159" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E159" s="48"/>
+      <c r="F159" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="G159" s="51"/>
+      <c r="H159" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I159" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A160" s="60"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="54"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="51"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="46"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A161" s="60"/>
+      <c r="B161" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C161" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E161" s="48"/>
+      <c r="F161" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="G161" s="51"/>
+      <c r="H161" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I161" s="43" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A86" s="51"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="114"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="56"/>
-    </row>
-    <row r="87" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D87" s="45" t="s">
+    <row r="162" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A162" s="60"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="46"/>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A163" s="60"/>
+      <c r="B163" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D163" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E163" s="48"/>
+      <c r="F163" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="G163" s="51"/>
+      <c r="H163" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I163" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A164" s="60"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="46"/>
+    </row>
+    <row r="165" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A165" s="60"/>
+      <c r="B165" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="C165" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="D165" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E87" s="53"/>
-      <c r="F87" s="45" t="s">
+      <c r="E165" s="48"/>
+      <c r="F165" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="114"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="56"/>
-    </row>
-    <row r="89" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A89" s="51"/>
-      <c r="B89" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="E89" s="53"/>
-      <c r="F89" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="114"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="55" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A90" s="51"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="110"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="114"/>
-      <c r="J90" s="53"/>
-      <c r="K90" s="56"/>
-    </row>
-    <row r="91" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A91" s="51"/>
-      <c r="B91" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E91" s="53"/>
-      <c r="F91" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="114"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A92" s="51"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="114"/>
-      <c r="J92" s="53"/>
-      <c r="K92" s="56"/>
-    </row>
-    <row r="93" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A93" s="51"/>
-      <c r="B93" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D93" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E93" s="53"/>
-      <c r="F93" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="114"/>
-      <c r="J93" s="53"/>
-      <c r="K93" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A94" s="51"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="114"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="56"/>
-    </row>
-    <row r="95" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D95" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E95" s="53"/>
-      <c r="F95" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="114"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="114"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="56"/>
-    </row>
-    <row r="97" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A97" s="51"/>
-      <c r="B97" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E97" s="53"/>
-      <c r="F97" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="114"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A98" s="51"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="114"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="56"/>
-    </row>
-    <row r="99" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A99" s="51"/>
-      <c r="B99" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="D99" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E99" s="53"/>
-      <c r="F99" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="114"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A100" s="51"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="114"/>
-      <c r="J100" s="53"/>
-      <c r="K100" s="56"/>
-    </row>
-    <row r="101" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A101" s="51"/>
-      <c r="B101" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D101" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E101" s="53"/>
-      <c r="F101" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="114"/>
-      <c r="J101" s="53"/>
-      <c r="K101" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A102" s="51"/>
-      <c r="B102" s="46"/>
-      <c r="C102" s="46"/>
-      <c r="D102" s="46"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="46"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="114"/>
-      <c r="J102" s="53"/>
-      <c r="K102" s="56"/>
-    </row>
-    <row r="103" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A103" s="51"/>
-      <c r="B103" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D103" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E103" s="53"/>
-      <c r="F103" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="114"/>
-      <c r="J103" s="53"/>
-      <c r="K103" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A104" s="51"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="46"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="114"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="56"/>
-    </row>
-    <row r="105" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A105" s="51"/>
-      <c r="B105" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D105" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E105" s="53"/>
-      <c r="F105" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="114"/>
-      <c r="J105" s="53"/>
-      <c r="K105" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A106" s="51"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="46"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="114"/>
-      <c r="J106" s="53"/>
-      <c r="K106" s="56"/>
-    </row>
-    <row r="107" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A107" s="51"/>
-      <c r="B107" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C107" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D107" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E107" s="53"/>
-      <c r="F107" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="114"/>
-      <c r="J107" s="53"/>
-      <c r="K107" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A108" s="51"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="46"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="114"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="56"/>
-    </row>
-    <row r="109" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A109" s="51"/>
-      <c r="B109" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C109" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E109" s="53"/>
-      <c r="F109" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="114"/>
-      <c r="J109" s="53"/>
-      <c r="K109" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A110" s="51"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="46"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="114"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="56"/>
-    </row>
-    <row r="111" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C111" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D111" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E111" s="53"/>
-      <c r="F111" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="53"/>
-      <c r="K111" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A112" s="51"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="46"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="56"/>
-    </row>
-    <row r="113" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D113" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="53"/>
-      <c r="F113" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="114"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A114" s="51"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="114"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="56"/>
-    </row>
-    <row r="115" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A115" s="51"/>
-      <c r="B115" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E115" s="53"/>
-      <c r="F115" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="114"/>
-      <c r="J115" s="53"/>
-      <c r="K115" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A116" s="51"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="114"/>
-      <c r="J116" s="53"/>
-      <c r="K116" s="56"/>
-    </row>
-    <row r="117" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A117" s="51"/>
-      <c r="B117" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="D117" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E117" s="53"/>
-      <c r="F117" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="114"/>
-      <c r="J117" s="53"/>
-      <c r="K117" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A118" s="51"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="46"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="46"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="114"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="56"/>
-    </row>
-    <row r="119" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A119" s="51"/>
-      <c r="B119" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C119" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E119" s="53"/>
-      <c r="F119" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="114"/>
-      <c r="J119" s="53"/>
-      <c r="K119" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A120" s="51"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="46"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="114"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="56"/>
-    </row>
-    <row r="121" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A121" s="51"/>
-      <c r="B121" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="D121" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E121" s="53"/>
-      <c r="F121" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="114"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A122" s="51"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="46"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="114"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="56"/>
-    </row>
-    <row r="123" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A123" s="51"/>
-      <c r="B123" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C123" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D123" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E123" s="53"/>
-      <c r="F123" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="114"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A124" s="51"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="114"/>
-      <c r="J124" s="53"/>
-      <c r="K124" s="56"/>
-    </row>
-    <row r="125" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A125" s="51"/>
-      <c r="B125" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="C125" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D125" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E125" s="53"/>
-      <c r="F125" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="114"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A126" s="51"/>
-      <c r="B126" s="46"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="46"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="114"/>
-      <c r="J126" s="53"/>
-      <c r="K126" s="56"/>
-    </row>
-    <row r="127" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A127" s="51"/>
-      <c r="B127" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C127" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="D127" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E127" s="53"/>
-      <c r="F127" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="114"/>
-      <c r="J127" s="53"/>
-      <c r="K127" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A128" s="51"/>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="114"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="56"/>
-    </row>
-    <row r="129" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A129" s="51"/>
-      <c r="B129" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C129" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="D129" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" s="53"/>
-      <c r="F129" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="114"/>
-      <c r="J129" s="53"/>
-      <c r="K129" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A130" s="51"/>
-      <c r="B130" s="46"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="46"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="114"/>
-      <c r="J130" s="53"/>
-      <c r="K130" s="56"/>
-    </row>
-    <row r="131" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A131" s="51"/>
-      <c r="B131" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C131" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="D131" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E131" s="53"/>
-      <c r="F131" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="114"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A132" s="51"/>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="114"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="56"/>
-    </row>
-    <row r="133" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A133" s="51"/>
-      <c r="B133" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D133" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E133" s="53"/>
-      <c r="F133" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="114"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A134" s="51"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="114"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="56"/>
-    </row>
-    <row r="135" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A135" s="51"/>
-      <c r="B135" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E135" s="53"/>
-      <c r="F135" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="114"/>
-      <c r="J135" s="53"/>
-      <c r="K135" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A136" s="51"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="46"/>
-      <c r="D136" s="46"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="114"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="56"/>
-    </row>
-    <row r="137" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A137" s="51"/>
-      <c r="B137" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="D137" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E137" s="53"/>
-      <c r="F137" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="114"/>
-      <c r="J137" s="53"/>
-      <c r="K137" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A138" s="51"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="46"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="114"/>
-      <c r="J138" s="53"/>
-      <c r="K138" s="56"/>
-    </row>
-    <row r="139" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A139" s="51"/>
-      <c r="B139" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C139" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="D139" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E139" s="53"/>
-      <c r="F139" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="114"/>
-      <c r="J139" s="53"/>
-      <c r="K139" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A140" s="51"/>
-      <c r="B140" s="46"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="46"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="114"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="56"/>
-    </row>
-    <row r="141" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A141" s="51"/>
-      <c r="B141" s="65" t="s">
-        <v>215</v>
-      </c>
-      <c r="C141" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D141" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E141" s="53"/>
-      <c r="F141" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="114"/>
-      <c r="J141" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="K141" s="55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A142" s="51"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="46"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="114"/>
-      <c r="J142" s="53"/>
-      <c r="K142" s="56"/>
-    </row>
-    <row r="143" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A143" s="51"/>
-      <c r="B143" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C143" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D143" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="E143" s="53"/>
-      <c r="F143" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="114"/>
-      <c r="J143" s="53"/>
-      <c r="K143" s="55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A144" s="51"/>
-      <c r="B144" s="46"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="46"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="114"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="56"/>
-    </row>
-    <row r="145" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A145" s="51"/>
-      <c r="B145" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C145" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="E145" s="53"/>
-      <c r="F145" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="114"/>
-      <c r="J145" s="53"/>
-      <c r="K145" s="55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A146" s="51"/>
-      <c r="B146" s="46"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="46"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="114"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="56"/>
-    </row>
-    <row r="147" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A147" s="51"/>
-      <c r="B147" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C147" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E147" s="53"/>
-      <c r="F147" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="114"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="55" t="s">
+      <c r="G165" s="51"/>
+      <c r="H165" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="I165" s="43" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A148" s="51"/>
-      <c r="B148" s="46"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="46"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="110"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="114"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="56"/>
-    </row>
-    <row r="149" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A149" s="51"/>
-      <c r="B149" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="D149" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E149" s="53"/>
-      <c r="F149" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="114"/>
-      <c r="J149" s="53"/>
-      <c r="K149" s="55" t="s">
+    <row r="166" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A166" s="60"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="48"/>
+      <c r="I166" s="46"/>
+    </row>
+    <row r="167" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A167" s="60"/>
+      <c r="B167" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C167" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E167" s="48"/>
+      <c r="F167" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="G167" s="51"/>
+      <c r="H167" s="48"/>
+      <c r="I167" s="43" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A150" s="51"/>
-      <c r="B150" s="46"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="114"/>
-      <c r="J150" s="46"/>
-      <c r="K150" s="56"/>
-    </row>
-    <row r="151" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A151" s="51"/>
-      <c r="B151" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="C151" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D151" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E151" s="53"/>
-      <c r="F151" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="114"/>
-      <c r="J151" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K151" s="55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A152" s="51"/>
-      <c r="B152" s="113"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="53"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="114"/>
-      <c r="J152" s="46"/>
-      <c r="K152" s="56"/>
-    </row>
-    <row r="153" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A153" s="51"/>
-      <c r="B153" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C153" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D153" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="E153" s="53"/>
-      <c r="F153" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="114"/>
-      <c r="J153" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="K153" s="55" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A154" s="51"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="46"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="114"/>
-      <c r="J154" s="53"/>
-      <c r="K154" s="56"/>
-    </row>
-    <row r="155" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A155" s="51"/>
-      <c r="B155" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="C155" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D155" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="E155" s="53"/>
-      <c r="F155" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="114"/>
-      <c r="J155" s="53"/>
-      <c r="K155" s="55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A156" s="51"/>
-      <c r="B156" s="46"/>
-      <c r="C156" s="46"/>
-      <c r="D156" s="46"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="46"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="114"/>
-      <c r="J156" s="53"/>
-      <c r="K156" s="56"/>
-    </row>
-    <row r="157" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A157" s="51"/>
-      <c r="B157" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C157" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D157" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E157" s="53"/>
-      <c r="F157" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="114"/>
-      <c r="J157" s="53"/>
-      <c r="K157" s="55" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A158" s="51"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="46"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="46"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="114"/>
-      <c r="J158" s="46"/>
-      <c r="K158" s="56"/>
-    </row>
-    <row r="159" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A159" s="51"/>
-      <c r="B159" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="C159" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D159" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="E159" s="53"/>
-      <c r="F159" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="114"/>
-      <c r="J159" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K159" s="55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A160" s="51"/>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="53"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="114"/>
-      <c r="J160" s="46"/>
-      <c r="K160" s="56"/>
-    </row>
-    <row r="161" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A161" s="51"/>
-      <c r="B161" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="C161" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D161" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E161" s="53"/>
-      <c r="F161" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="114"/>
-      <c r="J161" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K161" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A162" s="51"/>
-      <c r="B162" s="46"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="46"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="114"/>
-      <c r="J162" s="46"/>
-      <c r="K162" s="56"/>
-    </row>
-    <row r="163" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A163" s="51"/>
-      <c r="B163" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="C163" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="D163" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E163" s="53"/>
-      <c r="F163" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="114"/>
-      <c r="J163" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K163" s="55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A164" s="51"/>
-      <c r="B164" s="46"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="46"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="114"/>
-      <c r="J164" s="46"/>
-      <c r="K164" s="56"/>
-    </row>
-    <row r="165" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A165" s="51"/>
-      <c r="B165" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="C165" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="D165" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="E165" s="53"/>
-      <c r="F165" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="114"/>
-      <c r="J165" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="K165" s="55" t="s">
+    <row r="168" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A168" s="61"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="44"/>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A169" s="115" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A166" s="51"/>
-      <c r="B166" s="46"/>
-      <c r="C166" s="46"/>
-      <c r="D166" s="46"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="114"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="56"/>
-    </row>
-    <row r="167" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A167" s="51"/>
-      <c r="B167" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="D167" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="E167" s="53"/>
-      <c r="F167" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="114"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="55" t="s">
+      <c r="B169" s="118" t="s">
+        <v>357</v>
+      </c>
+      <c r="C169" s="48" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A168" s="60"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="115"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="57"/>
-    </row>
-    <row r="169" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A169" s="41"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="111"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="38"/>
-      <c r="I169" s="116"/>
-      <c r="J169" s="111"/>
-      <c r="K169" s="118"/>
-    </row>
-    <row r="170" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A170" s="112"/>
-      <c r="B170" s="46"/>
-      <c r="C170" s="46"/>
-      <c r="D170" s="46"/>
-      <c r="E170" s="109"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="36"/>
-      <c r="H170" s="36"/>
-      <c r="I170" s="117"/>
-      <c r="J170" s="109"/>
-      <c r="K170" s="56"/>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="41"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="38"/>
-      <c r="I171" s="38"/>
-      <c r="J171" s="38"/>
-      <c r="K171" s="40"/>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172" s="41"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="30"/>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="41"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="30"/>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="41"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="30"/>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" s="41"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="30"/>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="41"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="30"/>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177" s="41"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="30"/>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178" s="41"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="30"/>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179" s="41"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="30"/>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180" s="41"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="30"/>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181" s="41"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="30"/>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182" s="41"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="30"/>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="41"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="30"/>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="41"/>
-      <c r="G184" s="32"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
-      <c r="J184" s="32"/>
-      <c r="K184" s="4"/>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" s="41"/>
-      <c r="G185" s="32"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
-      <c r="J185" s="32"/>
-      <c r="K185" s="4"/>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186" s="41"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="32"/>
-      <c r="I186" s="32"/>
-      <c r="J186" s="32"/>
-      <c r="K186" s="4"/>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187" s="41"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="32"/>
-      <c r="D187" s="32"/>
-      <c r="E187" s="32"/>
-      <c r="F187" s="32"/>
-      <c r="G187" s="32"/>
-      <c r="H187" s="32"/>
-      <c r="I187" s="32"/>
-      <c r="J187" s="32"/>
-      <c r="K187" s="4"/>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188" s="41"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="32"/>
-      <c r="F188" s="32"/>
-      <c r="G188" s="32"/>
-      <c r="H188" s="32"/>
-      <c r="I188" s="32"/>
-      <c r="J188" s="32"/>
-      <c r="K188" s="4"/>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189" s="41"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32"/>
-      <c r="I189" s="32"/>
-      <c r="J189" s="32"/>
-      <c r="K189" s="4"/>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190" s="41"/>
-      <c r="B190" s="65"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
-      <c r="J190" s="32"/>
-      <c r="K190" s="4"/>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191" s="41"/>
-      <c r="B191" s="65"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
-      <c r="G191" s="32"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
-      <c r="J191" s="32"/>
-      <c r="K191" s="4"/>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192" s="41"/>
-      <c r="B192" s="65"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
-      <c r="J192" s="32"/>
-      <c r="K192" s="4"/>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193" s="41"/>
-      <c r="B193" s="65"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
-      <c r="J193" s="32"/>
-      <c r="K193" s="4"/>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194" s="41"/>
-      <c r="B194" s="65"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
-      <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="32"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
-      <c r="J194" s="32"/>
-      <c r="K194" s="4"/>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195" s="41"/>
-      <c r="B195" s="65"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
-      <c r="J195" s="32"/>
-      <c r="K195" s="4"/>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196" s="41"/>
-      <c r="B196" s="65"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
-      <c r="J196" s="32"/>
-      <c r="K196" s="4"/>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="41"/>
-      <c r="B197" s="65"/>
+      <c r="D169" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E169" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="F169" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G169" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="H169" s="42"/>
+      <c r="I169" s="45"/>
+    </row>
+    <row r="170" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A170" s="116"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="54"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="46"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A171" s="116"/>
+      <c r="B171" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C171" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E171" s="48"/>
+      <c r="F171" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G171" s="51"/>
+      <c r="H171" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="I171" s="43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A172" s="116"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="51"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="46"/>
+    </row>
+    <row r="173" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A173" s="116"/>
+      <c r="B173" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="D173" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="E173" s="48"/>
+      <c r="F173" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G173" s="51"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="113" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A174" s="116"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="114"/>
+    </row>
+    <row r="175" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A175" s="116"/>
+      <c r="B175" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C175" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D175" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E175" s="48"/>
+      <c r="F175" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="G175" s="51"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="117" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A176" s="116"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="54"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="46"/>
+    </row>
+    <row r="177" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A177" s="116"/>
+      <c r="B177" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="D177" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E177" s="48"/>
+      <c r="F177" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G177" s="51"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="113" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A178" s="116"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="54"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="46"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A179" s="116"/>
+      <c r="B179" s="48"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E179" s="48"/>
+      <c r="F179" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G179" s="51"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A180" s="116"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="46"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A181" s="116"/>
+      <c r="B181" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="E181" s="48"/>
+      <c r="F181" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G181" s="51"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A182" s="116"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="51"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="46"/>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A183" s="116"/>
+      <c r="B183" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="C183" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D183" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="E183" s="48"/>
+      <c r="F183" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G183" s="51"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="43"/>
+    </row>
+    <row r="184" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A184" s="116"/>
+      <c r="B184" s="48"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="51"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="46"/>
+    </row>
+    <row r="185" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A185" s="116"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E185" s="48"/>
+      <c r="F185" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G185" s="51"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A186" s="116"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="54"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="46"/>
+    </row>
+    <row r="187" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A187" s="116"/>
+      <c r="B187" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="C187" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D187" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="E187" s="48"/>
+      <c r="F187" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G187" s="51"/>
+      <c r="H187" s="48"/>
+      <c r="I187" s="113" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A188" s="116"/>
+      <c r="B188" s="48"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="54"/>
+      <c r="G188" s="51"/>
+      <c r="H188" s="48"/>
+      <c r="I188" s="46"/>
+    </row>
+    <row r="189" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A189" s="116"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="E189" s="48"/>
+      <c r="F189" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G189" s="51"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A190" s="116"/>
+      <c r="B190" s="54"/>
+      <c r="C190" s="54"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="54"/>
+      <c r="G190" s="51"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="46"/>
+    </row>
+    <row r="191" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A191" s="116"/>
+      <c r="B191" s="107" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D191" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E191" s="48"/>
+      <c r="F191" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="G191" s="51"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="43"/>
+    </row>
+    <row r="192" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A192" s="116"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="54"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="54"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="46"/>
+    </row>
+    <row r="193" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A193" s="116"/>
+      <c r="B193" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C193" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D193" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="E193" s="48"/>
+      <c r="F193" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="G193" s="51"/>
+      <c r="H193" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="I193" s="113" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A194" s="116"/>
+      <c r="B194" s="48"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="54"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="46"/>
+    </row>
+    <row r="195" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A195" s="116"/>
+      <c r="B195" s="48"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E195" s="48"/>
+      <c r="F195" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="G195" s="51"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="113" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A196" s="116"/>
+      <c r="B196" s="54"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="112"/>
+      <c r="H196" s="112"/>
+      <c r="I196" s="46"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
       <c r="E197" s="32"/>
       <c r="F197" s="32"/>
       <c r="G197" s="32"/>
       <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
-      <c r="J197" s="32"/>
-      <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="42"/>
-      <c r="B198" s="66"/>
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="40"/>
+      <c r="B198" s="40"/>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
       <c r="E198" s="14"/>
       <c r="F198" s="14"/>
       <c r="G198" s="14"/>
       <c r="H198" s="14"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
-      <c r="K198" s="31"/>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199" s="50"/>
-      <c r="B199" s="59"/>
+      <c r="I198" s="31"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="59"/>
+      <c r="B199" s="53"/>
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
-      <c r="I199" s="28"/>
-      <c r="J199" s="28"/>
-      <c r="K199" s="29"/>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200" s="60"/>
-      <c r="B200" s="54"/>
+      <c r="I199" s="29"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="61"/>
+      <c r="B200" s="49"/>
       <c r="C200" s="14"/>
       <c r="D200" s="14"/>
       <c r="E200" s="14"/>
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
       <c r="H200" s="14"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
-      <c r="K200" s="31"/>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201" s="50"/>
+      <c r="I200" s="31"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="59"/>
+      <c r="B201" s="47"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37"/>
       <c r="G201" s="28"/>
       <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
-      <c r="K201" s="29"/>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="51"/>
+      <c r="I201" s="29"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="60"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="30"/>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="51"/>
+      <c r="I202" s="30"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="60"/>
+      <c r="B203" s="47"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="30"/>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="51"/>
+      <c r="I203" s="30"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="60"/>
+      <c r="B204" s="54"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="30"/>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="51"/>
+      <c r="I204" s="30"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="60"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="30"/>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="51"/>
+      <c r="I205" s="30"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="60"/>
+      <c r="B206" s="54"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
       <c r="G206" s="11"/>
       <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="30"/>
-    </row>
-    <row r="207" spans="1:11">
-      <c r="A207" s="51"/>
+      <c r="I206" s="30"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="60"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
       <c r="G207" s="11"/>
       <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="30"/>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="51"/>
+      <c r="I207" s="30"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="60"/>
+      <c r="B208" s="54"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
       <c r="G208" s="11"/>
       <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="30"/>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="51"/>
+      <c r="I208" s="30"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="60"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="37"/>
       <c r="G209" s="11"/>
       <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="30"/>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="A210" s="51"/>
+      <c r="I209" s="30"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="60"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="37"/>
+      <c r="F210" s="37"/>
       <c r="G210" s="11"/>
       <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="30"/>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="A211" s="51"/>
+      <c r="I210" s="30"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="60"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="37"/>
+      <c r="E211" s="37"/>
+      <c r="F211" s="37"/>
       <c r="G211" s="11"/>
       <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="30"/>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="A212" s="51"/>
+      <c r="I211" s="30"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="60"/>
+      <c r="B212" s="38"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="37"/>
+      <c r="E212" s="37"/>
+      <c r="F212" s="37"/>
       <c r="G212" s="11"/>
       <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="30"/>
-    </row>
-    <row r="213" spans="1:11">
-      <c r="A213" s="51"/>
+      <c r="I212" s="30"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="60"/>
+      <c r="B213" s="47"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="37"/>
       <c r="G213" s="11"/>
       <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="11"/>
-      <c r="K213" s="30"/>
-    </row>
-    <row r="214" spans="1:11">
-      <c r="A214" s="51"/>
+      <c r="I213" s="30"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="60"/>
+      <c r="B214" s="54"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="37"/>
+      <c r="F214" s="37"/>
       <c r="G214" s="11"/>
       <c r="H214" s="11"/>
-      <c r="I214" s="11"/>
-      <c r="J214" s="11"/>
-      <c r="K214" s="30"/>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" s="51"/>
+      <c r="I214" s="30"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="60"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="37"/>
+      <c r="F215" s="37"/>
       <c r="G215" s="11"/>
       <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="11"/>
-      <c r="K215" s="30"/>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="A216" s="51"/>
+      <c r="I215" s="30"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="60"/>
+      <c r="B216" s="54"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="37"/>
+      <c r="E216" s="37"/>
+      <c r="F216" s="37"/>
       <c r="G216" s="11"/>
       <c r="H216" s="11"/>
-      <c r="I216" s="11"/>
-      <c r="J216" s="11"/>
-      <c r="K216" s="30"/>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="A217" s="51"/>
+      <c r="I216" s="30"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="60"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="37"/>
+      <c r="F217" s="37"/>
       <c r="G217" s="11"/>
       <c r="H217" s="11"/>
-      <c r="I217" s="11"/>
-      <c r="J217" s="11"/>
-      <c r="K217" s="30"/>
-    </row>
-    <row r="218" spans="1:11">
-      <c r="A218" s="51"/>
+      <c r="I217" s="30"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="60"/>
+      <c r="B218" s="54"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="37"/>
+      <c r="F218" s="37"/>
       <c r="G218" s="11"/>
       <c r="H218" s="11"/>
-      <c r="I218" s="11"/>
-      <c r="J218" s="11"/>
-      <c r="K218" s="30"/>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" s="51"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
+      <c r="I218" s="30"/>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="60"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="37"/>
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
-      <c r="I219" s="11"/>
-      <c r="J219" s="11"/>
-      <c r="K219" s="30"/>
-    </row>
-    <row r="220" spans="1:11">
-      <c r="A220" s="51"/>
-      <c r="B220" s="46"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="60"/>
+      <c r="B220" s="54"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
       <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="30"/>
-    </row>
-    <row r="221" spans="1:11">
-      <c r="A221" s="51"/>
-      <c r="B221" s="45"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="60"/>
+      <c r="B221" s="47"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
       <c r="H221" s="11"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="11"/>
-      <c r="K221" s="30"/>
-    </row>
-    <row r="222" spans="1:11">
-      <c r="A222" s="51"/>
-      <c r="B222" s="46"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="60"/>
+      <c r="B222" s="54"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
       <c r="H222" s="11"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="11"/>
-      <c r="K222" s="30"/>
-    </row>
-    <row r="223" spans="1:11">
-      <c r="A223" s="51"/>
-      <c r="B223" s="45"/>
+      <c r="I222" s="30"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="60"/>
+      <c r="B223" s="47"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
       <c r="H223" s="11"/>
-      <c r="I223" s="11"/>
-      <c r="J223" s="11"/>
-      <c r="K223" s="30"/>
-    </row>
-    <row r="224" spans="1:11">
-      <c r="A224" s="51"/>
-      <c r="B224" s="46"/>
+      <c r="I223" s="30"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="60"/>
+      <c r="B224" s="54"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="30"/>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="51"/>
-      <c r="B225" s="45"/>
+      <c r="I224" s="30"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="60"/>
+      <c r="B225" s="47"/>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
       <c r="H225" s="11"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="11"/>
-      <c r="K225" s="30"/>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" s="51"/>
-      <c r="B226" s="46"/>
+      <c r="I225" s="30"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="60"/>
+      <c r="B226" s="54"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="30"/>
-    </row>
-    <row r="227" spans="1:11">
-      <c r="A227" s="51"/>
-      <c r="B227" s="45"/>
+      <c r="I226" s="30"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="60"/>
+      <c r="B227" s="47"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
       <c r="H227" s="11"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="30"/>
-    </row>
-    <row r="228" spans="1:11">
-      <c r="A228" s="51"/>
-      <c r="B228" s="46"/>
+      <c r="I227" s="30"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="60"/>
+      <c r="B228" s="54"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
-      <c r="I228" s="11"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="30"/>
-    </row>
-    <row r="229" spans="1:11">
-      <c r="A229" s="51"/>
-      <c r="B229" s="45"/>
+      <c r="I228" s="30"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="60"/>
+      <c r="B229" s="47"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
       <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="30"/>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="A230" s="51"/>
-      <c r="B230" s="46"/>
+      <c r="I229" s="30"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="60"/>
+      <c r="B230" s="54"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
       <c r="H230" s="11"/>
-      <c r="I230" s="11"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="30"/>
-    </row>
-    <row r="231" spans="1:11">
-      <c r="A231" s="51"/>
-      <c r="B231" s="45"/>
+      <c r="I230" s="30"/>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="60"/>
+      <c r="B231" s="47"/>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
-      <c r="I231" s="11"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="30"/>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="A232" s="51"/>
-      <c r="B232" s="46"/>
+      <c r="I231" s="30"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="60"/>
+      <c r="B232" s="54"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
       <c r="H232" s="11"/>
-      <c r="I232" s="11"/>
-      <c r="J232" s="11"/>
-      <c r="K232" s="30"/>
-    </row>
-    <row r="233" spans="1:11">
-      <c r="A233" s="51"/>
-      <c r="B233" s="45"/>
+      <c r="I232" s="30"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="60"/>
+      <c r="B233" s="47"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
       <c r="H233" s="11"/>
-      <c r="I233" s="11"/>
-      <c r="J233" s="11"/>
-      <c r="K233" s="30"/>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="A234" s="60"/>
-      <c r="B234" s="54"/>
+      <c r="I233" s="30"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="61"/>
+      <c r="B234" s="49"/>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
       <c r="E234" s="14"/>
       <c r="F234" s="14"/>
       <c r="G234" s="14"/>
       <c r="H234" s="14"/>
-      <c r="I234" s="14"/>
-      <c r="J234" s="14"/>
-      <c r="K234" s="31"/>
-    </row>
-    <row r="235" spans="1:11">
-      <c r="A235" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="B235" s="53" t="s">
-        <v>21</v>
+      <c r="I234" s="31"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="48" t="s">
+        <v>20</v>
       </c>
       <c r="C235" s="12"/>
       <c r="D235" s="12"/>
@@ -10090,27 +10363,23 @@
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
       <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="6"/>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="51"/>
-      <c r="B236" s="46"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="60"/>
+      <c r="B236" s="54"/>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
       <c r="H236" s="11"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="30"/>
-    </row>
-    <row r="237" spans="1:11">
-      <c r="A237" s="51"/>
-      <c r="B237" s="45" t="s">
-        <v>22</v>
+      <c r="I236" s="30"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="60"/>
+      <c r="B237" s="47" t="s">
+        <v>21</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
@@ -10118,27 +10387,23 @@
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="30"/>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="51"/>
-      <c r="B238" s="46"/>
+      <c r="I237" s="30"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="60"/>
+      <c r="B238" s="54"/>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
       <c r="H238" s="11"/>
-      <c r="I238" s="11"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="30"/>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="A239" s="51"/>
-      <c r="B239" s="45" t="s">
-        <v>23</v>
+      <c r="I238" s="30"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="60"/>
+      <c r="B239" s="47" t="s">
+        <v>22</v>
       </c>
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
@@ -10146,27 +10411,23 @@
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
       <c r="H239" s="11"/>
-      <c r="I239" s="11"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="30"/>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="A240" s="51"/>
-      <c r="B240" s="46"/>
+      <c r="I239" s="30"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="60"/>
+      <c r="B240" s="54"/>
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
-      <c r="I240" s="11"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="30"/>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" s="51"/>
-      <c r="B241" s="45" t="s">
-        <v>24</v>
+      <c r="I240" s="30"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="60"/>
+      <c r="B241" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
@@ -10174,27 +10435,23 @@
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="30"/>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="51"/>
-      <c r="B242" s="46"/>
+      <c r="I241" s="30"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="60"/>
+      <c r="B242" s="54"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="30"/>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="51"/>
-      <c r="B243" s="45" t="s">
-        <v>25</v>
+      <c r="I242" s="30"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="60"/>
+      <c r="B243" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
@@ -10202,27 +10459,23 @@
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
       <c r="H243" s="11"/>
-      <c r="I243" s="11"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="30"/>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="A244" s="51"/>
-      <c r="B244" s="46"/>
+      <c r="I243" s="30"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="60"/>
+      <c r="B244" s="54"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
-      <c r="I244" s="11"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="30"/>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" s="51"/>
-      <c r="B245" s="45" t="s">
-        <v>27</v>
+      <c r="I244" s="30"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="60"/>
+      <c r="B245" s="47" t="s">
+        <v>26</v>
       </c>
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
@@ -10230,27 +10483,23 @@
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
-      <c r="I245" s="11"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="30"/>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" s="51"/>
-      <c r="B246" s="46"/>
+      <c r="I245" s="30"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="60"/>
+      <c r="B246" s="54"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="30"/>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" s="51"/>
-      <c r="B247" s="45" t="s">
-        <v>26</v>
+      <c r="I246" s="30"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="60"/>
+      <c r="B247" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="C247" s="11"/>
       <c r="D247" s="11"/>
@@ -10258,27 +10507,23 @@
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="30"/>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="A248" s="51"/>
-      <c r="B248" s="46"/>
+      <c r="I247" s="30"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="60"/>
+      <c r="B248" s="54"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="30"/>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" s="51"/>
-      <c r="B249" s="45" t="s">
-        <v>28</v>
+      <c r="I248" s="30"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="60"/>
+      <c r="B249" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
@@ -10286,27 +10531,23 @@
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="30"/>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" s="51"/>
-      <c r="B250" s="46"/>
+      <c r="I249" s="30"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="60"/>
+      <c r="B250" s="54"/>
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="30"/>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" s="51"/>
-      <c r="B251" s="45" t="s">
-        <v>29</v>
+      <c r="I250" s="30"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="60"/>
+      <c r="B251" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
@@ -10314,27 +10555,23 @@
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="30"/>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" s="51"/>
-      <c r="B252" s="46"/>
+      <c r="I251" s="30"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="60"/>
+      <c r="B252" s="54"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
-      <c r="I252" s="11"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="30"/>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="51"/>
-      <c r="B253" s="45" t="s">
-        <v>31</v>
+      <c r="I252" s="30"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="60"/>
+      <c r="B253" s="47" t="s">
+        <v>30</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
@@ -10342,27 +10579,23 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="30"/>
-    </row>
-    <row r="254" spans="1:11">
-      <c r="A254" s="51"/>
-      <c r="B254" s="46"/>
+      <c r="I253" s="30"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="60"/>
+      <c r="B254" s="54"/>
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="30"/>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="51"/>
-      <c r="B255" s="45" t="s">
-        <v>30</v>
+      <c r="I254" s="30"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="60"/>
+      <c r="B255" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
@@ -10370,27 +10603,23 @@
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="30"/>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="51"/>
-      <c r="B256" s="46"/>
+      <c r="I255" s="30"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="60"/>
+      <c r="B256" s="54"/>
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="30"/>
+      <c r="I256" s="30"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="51"/>
-      <c r="B257" s="45" t="s">
-        <v>20</v>
+      <c r="A257" s="60"/>
+      <c r="B257" s="47" t="s">
+        <v>19</v>
       </c>
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
@@ -10398,27 +10627,23 @@
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
-      <c r="I257" s="11"/>
-      <c r="J257" s="11"/>
-      <c r="K257" s="30"/>
+      <c r="I257" s="30"/>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="51"/>
-      <c r="B258" s="46"/>
+      <c r="A258" s="60"/>
+      <c r="B258" s="54"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11"/>
-      <c r="K258" s="30"/>
+      <c r="I258" s="30"/>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="51"/>
-      <c r="B259" s="45" t="s">
-        <v>32</v>
+      <c r="A259" s="60"/>
+      <c r="B259" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
@@ -10426,27 +10651,23 @@
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
-      <c r="I259" s="11"/>
-      <c r="J259" s="11"/>
-      <c r="K259" s="30"/>
+      <c r="I259" s="30"/>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="51"/>
-      <c r="B260" s="46"/>
+      <c r="A260" s="60"/>
+      <c r="B260" s="54"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
-      <c r="I260" s="11"/>
-      <c r="J260" s="11"/>
-      <c r="K260" s="30"/>
+      <c r="I260" s="30"/>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="51"/>
-      <c r="B261" s="45" t="s">
-        <v>33</v>
+      <c r="A261" s="60"/>
+      <c r="B261" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
@@ -10454,27 +10675,23 @@
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="J261" s="11"/>
-      <c r="K261" s="30"/>
+      <c r="I261" s="30"/>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="51"/>
-      <c r="B262" s="46"/>
+      <c r="A262" s="60"/>
+      <c r="B262" s="54"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
-      <c r="K262" s="30"/>
+      <c r="I262" s="30"/>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="51"/>
-      <c r="B263" s="45" t="s">
-        <v>34</v>
+      <c r="A263" s="60"/>
+      <c r="B263" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
@@ -10482,27 +10699,23 @@
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="11"/>
-      <c r="K263" s="30"/>
+      <c r="I263" s="30"/>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="51"/>
-      <c r="B264" s="46"/>
+      <c r="A264" s="60"/>
+      <c r="B264" s="54"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
-      <c r="I264" s="11"/>
-      <c r="J264" s="11"/>
-      <c r="K264" s="30"/>
+      <c r="I264" s="30"/>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="51"/>
-      <c r="B265" s="45" t="s">
-        <v>35</v>
+      <c r="A265" s="60"/>
+      <c r="B265" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
@@ -10510,22 +10723,18 @@
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="30"/>
+      <c r="I265" s="30"/>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="60"/>
-      <c r="B266" s="54"/>
+      <c r="A266" s="61"/>
+      <c r="B266" s="49"/>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
       <c r="G266" s="14"/>
       <c r="H266" s="14"/>
-      <c r="I266" s="14"/>
-      <c r="J266" s="14"/>
-      <c r="K266" s="31"/>
+      <c r="I266" s="31"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="1"/>
@@ -10614,140 +10823,378 @@
       <c r="H273" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
-    <mergeCell ref="K167:K168"/>
-    <mergeCell ref="K169:K170"/>
-    <mergeCell ref="J165:J168"/>
-    <mergeCell ref="I77:I168"/>
-    <mergeCell ref="E77:E168"/>
-    <mergeCell ref="J141:J150"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="J153:J158"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="J161:J162"/>
-    <mergeCell ref="J163:J164"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="K153:K154"/>
-    <mergeCell ref="K155:K156"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="K161:K162"/>
-    <mergeCell ref="K163:K164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="K147:K148"/>
-    <mergeCell ref="K149:K150"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="K127:K128"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="K133:K134"/>
-    <mergeCell ref="K135:K136"/>
-    <mergeCell ref="K137:K138"/>
-    <mergeCell ref="K139:K140"/>
-    <mergeCell ref="K105:K106"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K109:K110"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="K113:K114"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
+  <mergeCells count="535">
+    <mergeCell ref="C187:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="A169:A196"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B183:B186"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="E169:E196"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="C183:C186"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G169:G196"/>
+    <mergeCell ref="H193:H196"/>
+    <mergeCell ref="H171:H192"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A29:A48"/>
+    <mergeCell ref="C29:C48"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E29:E36"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="A201:A234"/>
+    <mergeCell ref="A235:A266"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="G12:G22"/>
+    <mergeCell ref="H12:H22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G49:G56"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="H49:H56"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A49:A68"/>
+    <mergeCell ref="C55:C68"/>
+    <mergeCell ref="E49:E56"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="G69:G76"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="H77:H140"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="A77:A168"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
     <mergeCell ref="C161:C162"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="C165:C166"/>
@@ -10772,331 +11219,146 @@
     <mergeCell ref="D91:D92"/>
     <mergeCell ref="F91:F92"/>
     <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
     <mergeCell ref="C141:C142"/>
     <mergeCell ref="C143:C144"/>
     <mergeCell ref="C145:C146"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="A77:A168"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="I69:I76"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="J69:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="J77:J140"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="J49:J56"/>
-    <mergeCell ref="J57:J62"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="I49:I56"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A49:A68"/>
-    <mergeCell ref="C55:C68"/>
-    <mergeCell ref="E49:E56"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I12:I22"/>
-    <mergeCell ref="J12:J22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B143:B144"/>
     <mergeCell ref="B149:B150"/>
     <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A201:A234"/>
-    <mergeCell ref="A235:A266"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="J29:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I29:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="C29:C48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="G77:G168"/>
+    <mergeCell ref="E77:E168"/>
+    <mergeCell ref="H141:H150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="H153:H158"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="I149:I150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final 완성된 서류/명령도표(게시판, 관리자페이지).xlsx
+++ b/final 완성된 서류/명령도표(게시판, 관리자페이지).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$266</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$270</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="418">
   <si>
     <t>명령 도표 기획문서안</t>
   </si>
@@ -5412,6 +5412,438 @@
   </si>
   <si>
     <t>댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 ID 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/idCheck.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCheck.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller/MemberController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idCheck()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberSql.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> Email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/joincode.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joincode.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joincode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/joinForm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinSubmit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member.model.MemberDTO.java
+member.model.MemberDAO.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberJoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네이버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카카오톡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/login.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/findPwd.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller/KakaoController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callback.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller/NaverController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callback()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kakao()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSubmit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendMail()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPwd.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPwd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendPwd()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatePwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberPwd
+memIdx
+memberName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memIdx
+memberName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>항공권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airport.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날씨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Nanum Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condata.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller/ConDataController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contry()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5513,7 +5945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -5665,32 +6097,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -5886,19 +6292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -5982,17 +6375,6 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -6041,51 +6423,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6096,34 +6463,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6132,23 +6481,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6157,97 +6515,139 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6274,12 +6674,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6304,91 +6698,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6732,179 +7111,179 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="11" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="11" topLeftCell="E189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C193" sqref="C193:C196"/>
+      <selection pane="bottomRight" activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24" style="16" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="24.77734375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="16" customWidth="1"/>
-    <col min="13" max="15" width="8.109375" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="8.77734375" style="16"/>
+    <col min="1" max="1" width="18.77734375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="24" style="11" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="24.77734375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="11" customWidth="1"/>
+    <col min="13" max="15" width="8.109375" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
-      <c r="M1" s="72" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="82"/>
+      <c r="M1" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="79"/>
-      <c r="M2" s="16" t="s">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="M2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="82" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="86"/>
-      <c r="M4" s="72" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
+      <c r="M4" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="16" t="s">
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="89"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6915,3884 +7294,3994 @@
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="95"/>
+      <c r="G11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="59"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="20"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="25"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="26"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="25"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.95" customHeight="1">
-      <c r="A16" s="60"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="24"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A12" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="I12" s="110" t="s">
+        <v>374</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A14" s="65"/>
+      <c r="B14" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="16"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A15" s="65"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" customHeight="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="108"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="107" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="15.95" customHeight="1">
-      <c r="A17" s="60"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="8"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.95" customHeight="1">
-      <c r="A18" s="60"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="22"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="60"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="60"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="6"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="60"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="61"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="27"/>
+      <c r="A17" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="108"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="114" t="s">
+        <v>408</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="21.75" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="115"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A19" s="65"/>
+      <c r="B19" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" s="108"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="115" t="s">
+        <v>409</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="115"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A21" s="65"/>
+      <c r="B21" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="108"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="115"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A22" s="65"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="108"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="65"/>
+      <c r="B24" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>403</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" s="108"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="116" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A25" s="65"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="G25" s="108"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="116"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="G26" s="109"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="117"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B27" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C27" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D27" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E27" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F27" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G27" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="53" t="s">
+      <c r="H27" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I27" s="56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A24" s="109"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A25" s="109"/>
-      <c r="B25" s="47" t="s">
+    <row r="28" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C29" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E29" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F29" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="43" t="s">
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="44" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:13" ht="25.5">
-      <c r="A27" s="59" t="s">
+    <row r="30" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:13" ht="25.5">
+      <c r="A31" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B31" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C31" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D31" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E31" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F31" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G31" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I31" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A28" s="61"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="59" t="s">
+    <row r="32" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B33" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C33" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D33" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E33" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F33" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G33" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H33" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I33" s="56" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A31" s="60"/>
-      <c r="B31" s="47" t="s">
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="58"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A35" s="58"/>
+      <c r="B35" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="47" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="47" t="s">
+      <c r="E35" s="61"/>
+      <c r="F35" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="43" t="s">
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="46"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="47" t="s">
+    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A36" s="58"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A37" s="58"/>
+      <c r="B37" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="47" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="47" t="s">
+      <c r="E37" s="61"/>
+      <c r="F37" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="43" t="s">
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="46"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="47" t="s">
+    <row r="38" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A38" s="58"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="47" t="s">
+      <c r="E39" s="61"/>
+      <c r="F39" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="47" t="s">
+      <c r="G39" s="39"/>
+      <c r="H39" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I39" s="44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="46"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A37" s="60"/>
-      <c r="B37" s="47" t="s">
+    <row r="40" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A40" s="58"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A41" s="58"/>
+      <c r="B41" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="47" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E41" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="47" t="s">
+      <c r="F41" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G41" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="47" t="s">
+      <c r="H41" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I41" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A39" s="60"/>
-      <c r="B39" s="47" t="s">
+    <row r="42" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A42" s="58"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A43" s="58"/>
+      <c r="B43" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="47" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="47" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="43" t="s">
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="46"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A41" s="60"/>
-      <c r="B41" s="47" t="s">
+    <row r="44" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A44" s="58"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A45" s="58"/>
+      <c r="B45" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="47" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="47" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="43" t="s">
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="46"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="67" t="s">
+    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A46" s="58"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A47" s="58"/>
+      <c r="B47" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="47" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="47" t="s">
+      <c r="E47" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F47" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G47" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="47" t="s">
+      <c r="H47" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I47" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="46"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="47" t="s">
+    <row r="48" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A48" s="58"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A49" s="58"/>
+      <c r="B49" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="47" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="47" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="43" t="s">
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="67" t="s">
+    <row r="50" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A50" s="58"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="45"/>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A51" s="58"/>
+      <c r="B51" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="47" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E51" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F51" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G51" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H51" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I51" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="44"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="59" t="s">
+    <row r="52" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A52" s="59"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B53" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C53" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D53" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E53" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F53" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G53" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H53" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="55" t="s">
+      <c r="I53" s="56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="46"/>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="47" t="s">
+    <row r="54" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A54" s="58"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="45"/>
+    </row>
+    <row r="55" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A55" s="58"/>
+      <c r="B55" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C55" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D55" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="47" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="43" t="s">
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="44" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="46"/>
-    </row>
-    <row r="53" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="47" t="s">
+    <row r="56" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A56" s="58"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="45"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C57" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D57" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="47" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="43" t="s">
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="44" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A54" s="60"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="46"/>
-    </row>
-    <row r="55" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="47" t="s">
+    <row r="58" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A58" s="58"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="45"/>
+    </row>
+    <row r="59" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A59" s="58"/>
+      <c r="B59" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C59" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D59" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="47" t="s">
+      <c r="E59" s="39"/>
+      <c r="F59" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="43" t="s">
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="44" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A56" s="60"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="46"/>
-    </row>
-    <row r="57" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="47" t="s">
+    <row r="60" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A60" s="58"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A61" s="58"/>
+      <c r="B61" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="70"/>
-      <c r="D57" s="47" t="s">
+      <c r="C61" s="61"/>
+      <c r="D61" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F61" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G57" s="66" t="s">
+      <c r="G61" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="H57" s="47" t="s">
+      <c r="H61" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I61" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A58" s="60"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="46"/>
-    </row>
-    <row r="59" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="64" t="s">
+    <row r="62" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A62" s="58"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A63" s="58"/>
+      <c r="B63" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="47" t="s">
+      <c r="C63" s="61"/>
+      <c r="D63" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="47" t="s">
+      <c r="E63" s="39"/>
+      <c r="F63" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="43" t="s">
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A60" s="60"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="46"/>
-    </row>
-    <row r="61" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="64" t="s">
+    <row r="64" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A64" s="58"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A65" s="58"/>
+      <c r="B65" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="47" t="s">
+      <c r="C65" s="61"/>
+      <c r="D65" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="47" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="43" t="s">
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="44" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A62" s="60"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A63" s="60"/>
-      <c r="B63" s="107" t="s">
+    <row r="66" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A66" s="58"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A67" s="58"/>
+      <c r="B67" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="47" t="s">
+      <c r="C67" s="61"/>
+      <c r="D67" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E67" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F67" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="66" t="s">
+      <c r="G67" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="H63" s="47" t="s">
+      <c r="H67" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I67" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A65" s="60"/>
-      <c r="B65" s="107" t="s">
+    <row r="68" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A68" s="58"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="45"/>
+    </row>
+    <row r="69" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A69" s="58"/>
+      <c r="B69" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="47" t="s">
+      <c r="C69" s="61"/>
+      <c r="D69" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="47" t="s">
+      <c r="E69" s="39"/>
+      <c r="F69" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="43" t="s">
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A66" s="60"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="67" t="s">
+    <row r="70" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A70" s="58"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="45"/>
+    </row>
+    <row r="71" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A71" s="58"/>
+      <c r="B71" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="47" t="s">
+      <c r="C71" s="61"/>
+      <c r="D71" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E71" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="47" t="s">
+      <c r="F71" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G67" s="66" t="s">
+      <c r="G71" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="H67" s="47" t="s">
+      <c r="H71" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I71" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="44"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="59" t="s">
+    <row r="72" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A72" s="59"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="99"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B73" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C73" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D73" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="E73" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="53" t="s">
+      <c r="F73" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G73" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H69" s="53" t="s">
+      <c r="H73" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="55" t="s">
+      <c r="I73" s="56" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A70" s="60"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="48" t="s">
+    <row r="74" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A74" s="58"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="45"/>
+    </row>
+    <row r="75" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A75" s="58"/>
+      <c r="B75" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C75" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="D71" s="47" t="s">
+      <c r="D75" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="47" t="s">
+      <c r="E75" s="39"/>
+      <c r="F75" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="43" t="s">
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="44" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A72" s="60"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="46"/>
-    </row>
-    <row r="73" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A73" s="60"/>
-      <c r="B73" s="48" t="s">
+    <row r="76" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A76" s="58"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="45"/>
+    </row>
+    <row r="77" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A77" s="58"/>
+      <c r="B77" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C77" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="47" t="s">
+      <c r="D77" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="47" t="s">
+      <c r="E77" s="39"/>
+      <c r="F77" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="43" t="s">
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="44" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="46"/>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A75" s="60"/>
-      <c r="B75" s="48" t="s">
+    <row r="78" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A78" s="58"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="45"/>
+    </row>
+    <row r="79" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A79" s="58"/>
+      <c r="B79" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C79" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D79" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="47" t="s">
+      <c r="E79" s="39"/>
+      <c r="F79" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G75" s="48"/>
-      <c r="H75" s="48" t="s">
+      <c r="G79" s="39"/>
+      <c r="H79" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I79" s="44" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A76" s="61"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="44"/>
-    </row>
-    <row r="77" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A77" s="59" t="s">
+    <row r="80" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A80" s="59"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+    </row>
+    <row r="81" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A81" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B81" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C81" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D81" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="E77" s="53" t="s">
+      <c r="E81" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="F81" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="G77" s="50" t="s">
+      <c r="G81" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="H77" s="53" t="s">
+      <c r="H81" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="I77" s="55" t="s">
+      <c r="I81" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A78" s="60"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="46"/>
-    </row>
-    <row r="79" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A79" s="60"/>
-      <c r="B79" s="64" t="s">
+    <row r="82" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A82" s="58"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="45"/>
+    </row>
+    <row r="83" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A83" s="58"/>
+      <c r="B83" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C83" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D83" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="47" t="s">
+      <c r="E83" s="39"/>
+      <c r="F83" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="G79" s="51"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="43" t="s">
+      <c r="G83" s="51"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="44" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A80" s="60"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="48"/>
-      <c r="I80" s="46"/>
-    </row>
-    <row r="81" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="64" t="s">
+    <row r="84" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A84" s="58"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="45"/>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A85" s="58"/>
+      <c r="B85" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C85" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D85" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="47" t="s">
+      <c r="E85" s="39"/>
+      <c r="F85" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="51"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="43" t="s">
+      <c r="G85" s="51"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A82" s="60"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="46"/>
-    </row>
-    <row r="83" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A83" s="60"/>
-      <c r="B83" s="64" t="s">
+    <row r="86" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A86" s="58"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="45"/>
+    </row>
+    <row r="87" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A87" s="58"/>
+      <c r="B87" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C87" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D87" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="47" t="s">
+      <c r="E87" s="39"/>
+      <c r="F87" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="51"/>
-      <c r="H83" s="48"/>
-      <c r="I83" s="43" t="s">
+      <c r="G87" s="51"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="44" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A84" s="60"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="46"/>
-    </row>
-    <row r="85" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A85" s="60"/>
-      <c r="B85" s="64" t="s">
+    <row r="88" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A88" s="58"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="45"/>
+    </row>
+    <row r="89" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A89" s="58"/>
+      <c r="B89" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C89" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D89" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="E85" s="48"/>
-      <c r="F85" s="47" t="s">
+      <c r="E89" s="39"/>
+      <c r="F89" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="G85" s="51"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="43" t="s">
+      <c r="G89" s="51"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="44" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A86" s="60"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="46"/>
-    </row>
-    <row r="87" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A87" s="60"/>
-      <c r="B87" s="64" t="s">
+    <row r="90" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A90" s="58"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A91" s="58"/>
+      <c r="B91" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C91" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D91" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="47" t="s">
+      <c r="E91" s="39"/>
+      <c r="F91" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G87" s="51"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="43" t="s">
+      <c r="G91" s="51"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="44" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A88" s="60"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="46"/>
-    </row>
-    <row r="89" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A89" s="60"/>
-      <c r="B89" s="64" t="s">
+    <row r="92" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A92" s="58"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A93" s="58"/>
+      <c r="B93" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C93" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D89" s="47" t="s">
+      <c r="D93" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="47" t="s">
+      <c r="E93" s="39"/>
+      <c r="F93" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G89" s="51"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="43" t="s">
+      <c r="G93" s="51"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="44" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A90" s="60"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="48"/>
-      <c r="I90" s="46"/>
-    </row>
-    <row r="91" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A91" s="60"/>
-      <c r="B91" s="47" t="s">
+    <row r="94" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A94" s="58"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="45"/>
+    </row>
+    <row r="95" spans="1:9" ht="17.100000000000001" customHeight="1">
+      <c r="A95" s="58"/>
+      <c r="B95" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="C95" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="D91" s="47" t="s">
+      <c r="D95" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="48"/>
-      <c r="F91" s="47" t="s">
+      <c r="E95" s="39"/>
+      <c r="F95" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="51"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="43" t="s">
+      <c r="G95" s="51"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A92" s="60"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="46"/>
-    </row>
-    <row r="93" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A93" s="60"/>
-      <c r="B93" s="47" t="s">
+    <row r="96" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A96" s="58"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="45"/>
+    </row>
+    <row r="97" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A97" s="58"/>
+      <c r="B97" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C97" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="D97" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="47" t="s">
+      <c r="E97" s="39"/>
+      <c r="F97" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G93" s="51"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="43" t="s">
+      <c r="G97" s="51"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A94" s="60"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="48"/>
-      <c r="I94" s="46"/>
-    </row>
-    <row r="95" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A95" s="60"/>
-      <c r="B95" s="47" t="s">
+    <row r="98" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A98" s="58"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="45"/>
+    </row>
+    <row r="99" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A99" s="58"/>
+      <c r="B99" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C99" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D95" s="47" t="s">
+      <c r="D99" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E95" s="48"/>
-      <c r="F95" s="47" t="s">
+      <c r="E99" s="39"/>
+      <c r="F99" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G95" s="51"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="43" t="s">
+      <c r="G99" s="51"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A96" s="60"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="46"/>
-    </row>
-    <row r="97" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A97" s="60"/>
-      <c r="B97" s="47" t="s">
+    <row r="100" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A100" s="58"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="40"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="45"/>
+    </row>
+    <row r="101" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A101" s="58"/>
+      <c r="B101" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C101" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D101" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E97" s="48"/>
-      <c r="F97" s="47" t="s">
+      <c r="E101" s="39"/>
+      <c r="F101" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G97" s="51"/>
-      <c r="H97" s="48"/>
-      <c r="I97" s="43" t="s">
+      <c r="G101" s="51"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A98" s="60"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="48"/>
-      <c r="I98" s="46"/>
-    </row>
-    <row r="99" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A99" s="60"/>
-      <c r="B99" s="47" t="s">
+    <row r="102" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A102" s="58"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="45"/>
+    </row>
+    <row r="103" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A103" s="58"/>
+      <c r="B103" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C103" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D103" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E99" s="48"/>
-      <c r="F99" s="47" t="s">
+      <c r="E103" s="39"/>
+      <c r="F103" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G99" s="51"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="43" t="s">
+      <c r="G103" s="51"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A100" s="60"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="54"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="46"/>
-    </row>
-    <row r="101" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A101" s="60"/>
-      <c r="B101" s="47" t="s">
+    <row r="104" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A104" s="58"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="45"/>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A105" s="58"/>
+      <c r="B105" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C105" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="D105" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E101" s="48"/>
-      <c r="F101" s="47" t="s">
+      <c r="E105" s="39"/>
+      <c r="F105" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G101" s="51"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="43" t="s">
+      <c r="G105" s="51"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A102" s="60"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="48"/>
-      <c r="I102" s="46"/>
-    </row>
-    <row r="103" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A103" s="60"/>
-      <c r="B103" s="47" t="s">
+    <row r="106" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A106" s="58"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="40"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A107" s="58"/>
+      <c r="B107" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="47" t="s">
+      <c r="C107" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D107" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E103" s="48"/>
-      <c r="F103" s="47" t="s">
+      <c r="E107" s="39"/>
+      <c r="F107" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G103" s="51"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="43" t="s">
+      <c r="G107" s="51"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A104" s="60"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="46"/>
-    </row>
-    <row r="105" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A105" s="60"/>
-      <c r="B105" s="47" t="s">
+    <row r="108" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A108" s="58"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="40"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="40"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="45"/>
+    </row>
+    <row r="109" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A109" s="58"/>
+      <c r="B109" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C109" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D105" s="47" t="s">
+      <c r="D109" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="47" t="s">
+      <c r="E109" s="39"/>
+      <c r="F109" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G105" s="51"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="43" t="s">
+      <c r="G109" s="51"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A106" s="60"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="48"/>
-      <c r="I106" s="46"/>
-    </row>
-    <row r="107" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A107" s="60"/>
-      <c r="B107" s="47" t="s">
+    <row r="110" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A110" s="58"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="45"/>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A111" s="58"/>
+      <c r="B111" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C111" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D111" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E107" s="48"/>
-      <c r="F107" s="47" t="s">
+      <c r="E111" s="39"/>
+      <c r="F111" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G107" s="51"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="43" t="s">
+      <c r="G111" s="51"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A108" s="60"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="46"/>
-    </row>
-    <row r="109" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A109" s="60"/>
-      <c r="B109" s="47" t="s">
+    <row r="112" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A112" s="58"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="45"/>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A113" s="58"/>
+      <c r="B113" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C113" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D109" s="47" t="s">
+      <c r="D113" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="48"/>
-      <c r="F109" s="47" t="s">
+      <c r="E113" s="39"/>
+      <c r="F113" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G109" s="51"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="43" t="s">
+      <c r="G113" s="51"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A110" s="60"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="46"/>
-    </row>
-    <row r="111" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A111" s="60"/>
-      <c r="B111" s="47" t="s">
+    <row r="114" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A114" s="58"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="40"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="45"/>
+    </row>
+    <row r="115" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A115" s="58"/>
+      <c r="B115" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C115" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D115" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="47" t="s">
+      <c r="E115" s="39"/>
+      <c r="F115" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G111" s="51"/>
-      <c r="H111" s="48"/>
-      <c r="I111" s="43" t="s">
+      <c r="G115" s="51"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A112" s="60"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="46"/>
-    </row>
-    <row r="113" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A113" s="60"/>
-      <c r="B113" s="47" t="s">
+    <row r="116" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A116" s="58"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="40"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="45"/>
+    </row>
+    <row r="117" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A117" s="58"/>
+      <c r="B117" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C113" s="47" t="s">
+      <c r="C117" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="47" t="s">
+      <c r="D117" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E113" s="48"/>
-      <c r="F113" s="47" t="s">
+      <c r="E117" s="39"/>
+      <c r="F117" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G113" s="51"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="43" t="s">
+      <c r="G117" s="51"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A114" s="60"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="46"/>
-    </row>
-    <row r="115" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A115" s="60"/>
-      <c r="B115" s="47" t="s">
+    <row r="118" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A118" s="58"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="45"/>
+    </row>
+    <row r="119" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A119" s="58"/>
+      <c r="B119" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="47" t="s">
+      <c r="C119" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D115" s="47" t="s">
+      <c r="D119" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E115" s="48"/>
-      <c r="F115" s="47" t="s">
+      <c r="E119" s="39"/>
+      <c r="F119" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G115" s="51"/>
-      <c r="H115" s="48"/>
-      <c r="I115" s="43" t="s">
+      <c r="G119" s="51"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A116" s="60"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="48"/>
-      <c r="I116" s="46"/>
-    </row>
-    <row r="117" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A117" s="60"/>
-      <c r="B117" s="47" t="s">
+    <row r="120" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A120" s="58"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="45"/>
+    </row>
+    <row r="121" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A121" s="58"/>
+      <c r="B121" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="47" t="s">
+      <c r="C121" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="D117" s="47" t="s">
+      <c r="D121" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E117" s="48"/>
-      <c r="F117" s="47" t="s">
+      <c r="E121" s="39"/>
+      <c r="F121" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G117" s="51"/>
-      <c r="H117" s="48"/>
-      <c r="I117" s="43" t="s">
+      <c r="G121" s="51"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A118" s="60"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="48"/>
-      <c r="I118" s="46"/>
-    </row>
-    <row r="119" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A119" s="60"/>
-      <c r="B119" s="47" t="s">
+    <row r="122" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A122" s="58"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A123" s="58"/>
+      <c r="B123" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="47" t="s">
+      <c r="C123" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="47" t="s">
+      <c r="D123" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E119" s="48"/>
-      <c r="F119" s="47" t="s">
+      <c r="E123" s="39"/>
+      <c r="F123" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G119" s="51"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="43" t="s">
+      <c r="G123" s="51"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A120" s="60"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="46"/>
-    </row>
-    <row r="121" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A121" s="60"/>
-      <c r="B121" s="47" t="s">
+    <row r="124" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A124" s="58"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="45"/>
+    </row>
+    <row r="125" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A125" s="58"/>
+      <c r="B125" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="C121" s="47" t="s">
+      <c r="C125" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D121" s="47" t="s">
+      <c r="D125" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="48"/>
-      <c r="F121" s="47" t="s">
+      <c r="E125" s="39"/>
+      <c r="F125" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G121" s="51"/>
-      <c r="H121" s="48"/>
-      <c r="I121" s="43" t="s">
+      <c r="G125" s="51"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A122" s="60"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="48"/>
-      <c r="I122" s="46"/>
-    </row>
-    <row r="123" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A123" s="60"/>
-      <c r="B123" s="47" t="s">
+    <row r="126" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A126" s="58"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="45"/>
+    </row>
+    <row r="127" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A127" s="58"/>
+      <c r="B127" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="47" t="s">
+      <c r="C127" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D123" s="47" t="s">
+      <c r="D127" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E123" s="48"/>
-      <c r="F123" s="47" t="s">
+      <c r="E127" s="39"/>
+      <c r="F127" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G123" s="51"/>
-      <c r="H123" s="48"/>
-      <c r="I123" s="43" t="s">
+      <c r="G127" s="51"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A124" s="60"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="48"/>
-      <c r="I124" s="46"/>
-    </row>
-    <row r="125" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A125" s="60"/>
-      <c r="B125" s="47" t="s">
+    <row r="128" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A128" s="58"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="45"/>
+    </row>
+    <row r="129" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A129" s="58"/>
+      <c r="B129" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="47" t="s">
+      <c r="C129" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D129" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E125" s="48"/>
-      <c r="F125" s="47" t="s">
+      <c r="E129" s="39"/>
+      <c r="F129" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G125" s="51"/>
-      <c r="H125" s="48"/>
-      <c r="I125" s="43" t="s">
+      <c r="G129" s="51"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A126" s="60"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="46"/>
-    </row>
-    <row r="127" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A127" s="60"/>
-      <c r="B127" s="47" t="s">
+    <row r="130" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A130" s="58"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="45"/>
+    </row>
+    <row r="131" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A131" s="58"/>
+      <c r="B131" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C131" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="D127" s="47" t="s">
+      <c r="D131" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E127" s="48"/>
-      <c r="F127" s="47" t="s">
+      <c r="E131" s="39"/>
+      <c r="F131" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G127" s="51"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="43" t="s">
+      <c r="G131" s="51"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A128" s="60"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="54"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="46"/>
-    </row>
-    <row r="129" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A129" s="60"/>
-      <c r="B129" s="47" t="s">
+    <row r="132" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A132" s="58"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="45"/>
+    </row>
+    <row r="133" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A133" s="58"/>
+      <c r="B133" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="47" t="s">
+      <c r="C133" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="D129" s="47" t="s">
+      <c r="D133" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E129" s="48"/>
-      <c r="F129" s="47" t="s">
+      <c r="E133" s="39"/>
+      <c r="F133" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G129" s="51"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="43" t="s">
+      <c r="G133" s="51"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A130" s="60"/>
-      <c r="B130" s="54"/>
-      <c r="C130" s="54"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="48"/>
-      <c r="I130" s="46"/>
-    </row>
-    <row r="131" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A131" s="60"/>
-      <c r="B131" s="47" t="s">
+    <row r="134" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A134" s="58"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="45"/>
+    </row>
+    <row r="135" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A135" s="58"/>
+      <c r="B135" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C131" s="47" t="s">
+      <c r="C135" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D131" s="47" t="s">
+      <c r="D135" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E131" s="48"/>
-      <c r="F131" s="47" t="s">
+      <c r="E135" s="39"/>
+      <c r="F135" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G131" s="51"/>
-      <c r="H131" s="48"/>
-      <c r="I131" s="43" t="s">
+      <c r="G135" s="51"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A132" s="60"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="48"/>
-      <c r="I132" s="46"/>
-    </row>
-    <row r="133" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A133" s="60"/>
-      <c r="B133" s="47" t="s">
+    <row r="136" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A136" s="58"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="40"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="45"/>
+    </row>
+    <row r="137" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A137" s="58"/>
+      <c r="B137" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C133" s="47" t="s">
+      <c r="C137" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D133" s="47" t="s">
+      <c r="D137" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E133" s="48"/>
-      <c r="F133" s="47" t="s">
+      <c r="E137" s="39"/>
+      <c r="F137" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G133" s="51"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="43" t="s">
+      <c r="G137" s="51"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A134" s="60"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="46"/>
-    </row>
-    <row r="135" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A135" s="60"/>
-      <c r="B135" s="47" t="s">
+    <row r="138" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A138" s="58"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="45"/>
+    </row>
+    <row r="139" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A139" s="58"/>
+      <c r="B139" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C135" s="47" t="s">
+      <c r="C139" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D135" s="47" t="s">
+      <c r="D139" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E135" s="48"/>
-      <c r="F135" s="47" t="s">
+      <c r="E139" s="39"/>
+      <c r="F139" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G135" s="51"/>
-      <c r="H135" s="48"/>
-      <c r="I135" s="43" t="s">
+      <c r="G139" s="51"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A136" s="60"/>
-      <c r="B136" s="54"/>
-      <c r="C136" s="54"/>
-      <c r="D136" s="54"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="54"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="48"/>
-      <c r="I136" s="46"/>
-    </row>
-    <row r="137" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A137" s="60"/>
-      <c r="B137" s="47" t="s">
+    <row r="140" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A140" s="58"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="45"/>
+    </row>
+    <row r="141" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A141" s="58"/>
+      <c r="B141" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C141" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="D137" s="47" t="s">
+      <c r="D141" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E137" s="48"/>
-      <c r="F137" s="47" t="s">
+      <c r="E141" s="39"/>
+      <c r="F141" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G137" s="51"/>
-      <c r="H137" s="48"/>
-      <c r="I137" s="43" t="s">
+      <c r="G141" s="51"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A138" s="60"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="54"/>
-      <c r="D138" s="54"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="54"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="48"/>
-      <c r="I138" s="46"/>
-    </row>
-    <row r="139" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A139" s="60"/>
-      <c r="B139" s="47" t="s">
+    <row r="142" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A142" s="58"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="45"/>
+    </row>
+    <row r="143" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A143" s="58"/>
+      <c r="B143" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C143" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D139" s="47" t="s">
+      <c r="D143" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E139" s="48"/>
-      <c r="F139" s="47" t="s">
+      <c r="E143" s="39"/>
+      <c r="F143" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G139" s="51"/>
-      <c r="H139" s="48"/>
-      <c r="I139" s="43" t="s">
+      <c r="G143" s="51"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A140" s="60"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="54"/>
-      <c r="D140" s="54"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="54"/>
-      <c r="I140" s="46"/>
-    </row>
-    <row r="141" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A141" s="60"/>
-      <c r="B141" s="64" t="s">
+    <row r="144" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A144" s="58"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="40"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="40"/>
+      <c r="G144" s="51"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="45"/>
+    </row>
+    <row r="145" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A145" s="58"/>
+      <c r="B145" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C145" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="D141" s="47" t="s">
+      <c r="D145" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E141" s="48"/>
-      <c r="F141" s="47" t="s">
+      <c r="E145" s="39"/>
+      <c r="F145" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G141" s="51"/>
-      <c r="H141" s="47" t="s">
+      <c r="G145" s="51"/>
+      <c r="H145" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="I141" s="43" t="s">
+      <c r="I145" s="44" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A142" s="60"/>
-      <c r="B142" s="64"/>
-      <c r="C142" s="54"/>
-      <c r="D142" s="54"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="48"/>
-      <c r="I142" s="46"/>
-    </row>
-    <row r="143" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A143" s="60"/>
-      <c r="B143" s="48" t="s">
+    <row r="146" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A146" s="58"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="51"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="45"/>
+    </row>
+    <row r="147" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A147" s="58"/>
+      <c r="B147" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C147" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="D143" s="47" t="s">
+      <c r="D147" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E143" s="48"/>
-      <c r="F143" s="47" t="s">
+      <c r="E147" s="39"/>
+      <c r="F147" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="G143" s="51"/>
-      <c r="H143" s="48"/>
-      <c r="I143" s="43" t="s">
+      <c r="G147" s="51"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="44" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A144" s="60"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="46"/>
-    </row>
-    <row r="145" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A145" s="60"/>
-      <c r="B145" s="47" t="s">
+    <row r="148" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A148" s="58"/>
+      <c r="B148" s="40"/>
+      <c r="C148" s="40"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="51"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="149" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A149" s="58"/>
+      <c r="B149" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C145" s="47" t="s">
+      <c r="C149" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D145" s="47" t="s">
+      <c r="D149" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E145" s="48"/>
-      <c r="F145" s="47" t="s">
+      <c r="E149" s="39"/>
+      <c r="F149" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="G145" s="51"/>
-      <c r="H145" s="48"/>
-      <c r="I145" s="43" t="s">
+      <c r="G149" s="51"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="44" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A146" s="60"/>
-      <c r="B146" s="54"/>
-      <c r="C146" s="54"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="54"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="48"/>
-      <c r="I146" s="46"/>
-    </row>
-    <row r="147" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A147" s="60"/>
-      <c r="B147" s="47" t="s">
+    <row r="150" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A150" s="58"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="51"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="45"/>
+    </row>
+    <row r="151" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A151" s="58"/>
+      <c r="B151" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C147" s="47" t="s">
+      <c r="C151" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D147" s="47" t="s">
+      <c r="D151" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="E147" s="48"/>
-      <c r="F147" s="47" t="s">
+      <c r="E151" s="39"/>
+      <c r="F151" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="G147" s="51"/>
-      <c r="H147" s="48"/>
-      <c r="I147" s="43" t="s">
+      <c r="G151" s="51"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="44" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A148" s="60"/>
-      <c r="B148" s="54"/>
-      <c r="C148" s="54"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="58"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="48"/>
-      <c r="I148" s="46"/>
-    </row>
-    <row r="149" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A149" s="60"/>
-      <c r="B149" s="47" t="s">
+    <row r="152" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A152" s="58"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="101"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="45"/>
+    </row>
+    <row r="153" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A153" s="58"/>
+      <c r="B153" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C149" s="47" t="s">
+      <c r="C153" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="D149" s="47" t="s">
+      <c r="D153" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E149" s="48"/>
-      <c r="F149" s="47" t="s">
+      <c r="E153" s="39"/>
+      <c r="F153" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G149" s="51"/>
-      <c r="H149" s="48"/>
-      <c r="I149" s="43" t="s">
+      <c r="G153" s="51"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="44" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A150" s="60"/>
-      <c r="B150" s="54"/>
-      <c r="C150" s="54"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="51"/>
-      <c r="H150" s="54"/>
-      <c r="I150" s="46"/>
-    </row>
-    <row r="151" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A151" s="60"/>
-      <c r="B151" s="56" t="s">
+    <row r="154" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A154" s="58"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="51"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="45"/>
+    </row>
+    <row r="155" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A155" s="58"/>
+      <c r="B155" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C155" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D151" s="47" t="s">
+      <c r="D155" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E151" s="48"/>
-      <c r="F151" s="47" t="s">
+      <c r="E155" s="39"/>
+      <c r="F155" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G151" s="51"/>
-      <c r="H151" s="47" t="s">
+      <c r="G155" s="51"/>
+      <c r="H155" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="I151" s="43" t="s">
+      <c r="I155" s="44" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A152" s="60"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="54"/>
-      <c r="D152" s="54"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="54"/>
-      <c r="G152" s="51"/>
-      <c r="H152" s="54"/>
-      <c r="I152" s="46"/>
-    </row>
-    <row r="153" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A153" s="60"/>
-      <c r="B153" s="48" t="s">
+    <row r="156" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A156" s="58"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="40"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="51"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="45"/>
+    </row>
+    <row r="157" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A157" s="58"/>
+      <c r="B157" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C157" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D153" s="47" t="s">
+      <c r="D157" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E153" s="48"/>
-      <c r="F153" s="47" t="s">
+      <c r="E157" s="39"/>
+      <c r="F157" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="G153" s="51"/>
-      <c r="H153" s="47" t="s">
+      <c r="G157" s="51"/>
+      <c r="H157" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="I153" s="43" t="s">
+      <c r="I157" s="44" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A154" s="60"/>
-      <c r="B154" s="54"/>
-      <c r="C154" s="54"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="54"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="48"/>
-      <c r="I154" s="46"/>
-    </row>
-    <row r="155" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A155" s="60"/>
-      <c r="B155" s="47" t="s">
+    <row r="158" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A158" s="58"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="51"/>
+      <c r="H158" s="39"/>
+      <c r="I158" s="45"/>
+    </row>
+    <row r="159" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A159" s="58"/>
+      <c r="B159" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C155" s="47" t="s">
+      <c r="C159" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="D155" s="47" t="s">
+      <c r="D159" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="E155" s="48"/>
-      <c r="F155" s="47" t="s">
+      <c r="E159" s="39"/>
+      <c r="F159" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="G155" s="51"/>
-      <c r="H155" s="48"/>
-      <c r="I155" s="43" t="s">
+      <c r="G159" s="51"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="44" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A156" s="60"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="51"/>
-      <c r="H156" s="48"/>
-      <c r="I156" s="46"/>
-    </row>
-    <row r="157" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A157" s="60"/>
-      <c r="B157" s="47" t="s">
+    <row r="160" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A160" s="58"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="40"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="40"/>
+      <c r="G160" s="51"/>
+      <c r="H160" s="39"/>
+      <c r="I160" s="45"/>
+    </row>
+    <row r="161" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A161" s="58"/>
+      <c r="B161" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C157" s="47" t="s">
+      <c r="C161" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="D157" s="47" t="s">
+      <c r="D161" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E157" s="48"/>
-      <c r="F157" s="47" t="s">
+      <c r="E161" s="39"/>
+      <c r="F161" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="G157" s="51"/>
-      <c r="H157" s="48"/>
-      <c r="I157" s="43" t="s">
+      <c r="G161" s="51"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="44" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A158" s="60"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="46"/>
-    </row>
-    <row r="159" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A159" s="60"/>
-      <c r="B159" s="47" t="s">
+    <row r="162" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A162" s="58"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="51"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="45"/>
+    </row>
+    <row r="163" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A163" s="58"/>
+      <c r="B163" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="C159" s="47" t="s">
+      <c r="C163" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D159" s="47" t="s">
+      <c r="D163" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E159" s="48"/>
-      <c r="F159" s="47" t="s">
+      <c r="E163" s="39"/>
+      <c r="F163" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G159" s="51"/>
-      <c r="H159" s="47" t="s">
+      <c r="G163" s="51"/>
+      <c r="H163" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="I159" s="43" t="s">
+      <c r="I163" s="44" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A160" s="60"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="54"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="51"/>
-      <c r="H160" s="54"/>
-      <c r="I160" s="46"/>
-    </row>
-    <row r="161" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A161" s="60"/>
-      <c r="B161" s="47" t="s">
+    <row r="164" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A164" s="58"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="40"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="40"/>
+      <c r="G164" s="51"/>
+      <c r="H164" s="40"/>
+      <c r="I164" s="45"/>
+    </row>
+    <row r="165" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A165" s="58"/>
+      <c r="B165" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C161" s="47" t="s">
+      <c r="C165" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D161" s="47" t="s">
+      <c r="D165" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="E161" s="48"/>
-      <c r="F161" s="47" t="s">
+      <c r="E165" s="39"/>
+      <c r="F165" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G161" s="51"/>
-      <c r="H161" s="47" t="s">
+      <c r="G165" s="51"/>
+      <c r="H165" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="I161" s="43" t="s">
+      <c r="I165" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A162" s="60"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="54"/>
-      <c r="G162" s="51"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="46"/>
-    </row>
-    <row r="163" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A163" s="60"/>
-      <c r="B163" s="47" t="s">
+    <row r="166" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A166" s="58"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="45"/>
+    </row>
+    <row r="167" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A167" s="58"/>
+      <c r="B167" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C163" s="47" t="s">
+      <c r="C167" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D163" s="47" t="s">
+      <c r="D167" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="E163" s="48"/>
-      <c r="F163" s="47" t="s">
+      <c r="E167" s="39"/>
+      <c r="F167" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="G163" s="51"/>
-      <c r="H163" s="47" t="s">
+      <c r="G167" s="51"/>
+      <c r="H167" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="I163" s="43" t="s">
+      <c r="I167" s="44" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A164" s="60"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="46"/>
-    </row>
-    <row r="165" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A165" s="60"/>
-      <c r="B165" s="47" t="s">
+    <row r="168" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A168" s="58"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="45"/>
+    </row>
+    <row r="169" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A169" s="58"/>
+      <c r="B169" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C165" s="47" t="s">
+      <c r="C169" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D165" s="47" t="s">
+      <c r="D169" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="47" t="s">
+      <c r="E169" s="39"/>
+      <c r="F169" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G165" s="51"/>
-      <c r="H165" s="47" t="s">
+      <c r="G169" s="51"/>
+      <c r="H169" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="I165" s="43" t="s">
+      <c r="I169" s="44" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A166" s="60"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="46"/>
-    </row>
-    <row r="167" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A167" s="60"/>
-      <c r="B167" s="47" t="s">
+    <row r="170" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A170" s="58"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="45"/>
+    </row>
+    <row r="171" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A171" s="58"/>
+      <c r="B171" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C171" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="D167" s="47" t="s">
+      <c r="D171" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="E167" s="48"/>
-      <c r="F167" s="47" t="s">
+      <c r="E171" s="39"/>
+      <c r="F171" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="G167" s="51"/>
-      <c r="H167" s="48"/>
-      <c r="I167" s="43" t="s">
+      <c r="G171" s="51"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="44" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A168" s="61"/>
-      <c r="B168" s="49"/>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="52"/>
-      <c r="H168" s="49"/>
-      <c r="I168" s="44"/>
-    </row>
-    <row r="169" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A169" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="B169" s="118" t="s">
-        <v>357</v>
-      </c>
-      <c r="C169" s="48" t="s">
-        <v>306</v>
-      </c>
-      <c r="D169" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E169" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="F169" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="G169" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="H169" s="42"/>
-      <c r="I169" s="45"/>
-    </row>
-    <row r="170" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A170" s="116"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="51"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="46"/>
-    </row>
-    <row r="171" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A171" s="116"/>
-      <c r="B171" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="C171" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="D171" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="E171" s="48"/>
-      <c r="F171" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="G171" s="51"/>
-      <c r="H171" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="I171" s="43" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row r="172" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A172" s="116"/>
-      <c r="B172" s="64"/>
+      <c r="A172" s="59"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="54"/>
       <c r="D172" s="54"/>
-      <c r="E172" s="48"/>
+      <c r="E172" s="54"/>
       <c r="F172" s="54"/>
-      <c r="G172" s="51"/>
-      <c r="H172" s="48"/>
-      <c r="I172" s="46"/>
+      <c r="G172" s="104"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="55"/>
     </row>
     <row r="173" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A173" s="116"/>
-      <c r="B173" s="64" t="s">
+      <c r="A173" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C173" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E173" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G173" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="H173" s="29"/>
+      <c r="I173" s="103"/>
+    </row>
+    <row r="174" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A174" s="42"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="51"/>
+      <c r="H174" s="28"/>
+      <c r="I174" s="45"/>
+    </row>
+    <row r="175" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A175" s="42"/>
+      <c r="B175" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="E175" s="39"/>
+      <c r="F175" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G175" s="51"/>
+      <c r="H175" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="I175" s="44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A176" s="42"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="39"/>
+      <c r="I176" s="45"/>
+    </row>
+    <row r="177" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A177" s="42"/>
+      <c r="B177" s="53" t="s">
         <v>359</v>
       </c>
-      <c r="C173" s="47" t="s">
+      <c r="C177" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D177" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E173" s="48"/>
-      <c r="F173" s="47" t="s">
+      <c r="E177" s="39"/>
+      <c r="F177" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="G173" s="51"/>
-      <c r="H173" s="48"/>
-      <c r="I173" s="113" t="s">
+      <c r="G177" s="51"/>
+      <c r="H177" s="39"/>
+      <c r="I177" s="46" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A174" s="116"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="114"/>
-    </row>
-    <row r="175" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A175" s="116"/>
-      <c r="B175" s="64" t="s">
+    <row r="178" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A178" s="42"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="51"/>
+      <c r="H178" s="39"/>
+      <c r="I178" s="48"/>
+    </row>
+    <row r="179" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A179" s="42"/>
+      <c r="B179" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="C175" s="47" t="s">
+      <c r="C179" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="D175" s="47" t="s">
+      <c r="D179" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="E175" s="48"/>
-      <c r="F175" s="47" t="s">
+      <c r="E179" s="39"/>
+      <c r="F179" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="G175" s="51"/>
-      <c r="H175" s="48"/>
-      <c r="I175" s="117" t="s">
+      <c r="G179" s="51"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="49" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A176" s="116"/>
-      <c r="B176" s="64"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="51"/>
-      <c r="H176" s="48"/>
-      <c r="I176" s="46"/>
-    </row>
-    <row r="177" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A177" s="116"/>
-      <c r="B177" s="47" t="s">
+    <row r="180" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A180" s="42"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="40"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="45"/>
+    </row>
+    <row r="181" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A181" s="42"/>
+      <c r="B181" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="C177" s="47" t="s">
+      <c r="C181" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="D177" s="47" t="s">
+      <c r="D181" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="E177" s="48"/>
-      <c r="F177" s="47" t="s">
+      <c r="E181" s="39"/>
+      <c r="F181" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="G177" s="51"/>
-      <c r="H177" s="48"/>
-      <c r="I177" s="113" t="s">
+      <c r="G181" s="51"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="46" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A178" s="116"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="48"/>
-      <c r="I178" s="46"/>
-    </row>
-    <row r="179" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A179" s="116"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="47" t="s">
+    <row r="182" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A182" s="42"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="39"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="40"/>
+      <c r="G182" s="51"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="45"/>
+    </row>
+    <row r="183" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A183" s="42"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="39"/>
+      <c r="D183" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="E179" s="48"/>
-      <c r="F179" s="47" t="s">
+      <c r="E183" s="39"/>
+      <c r="F183" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="G179" s="51"/>
-      <c r="H179" s="48"/>
-      <c r="I179" s="43" t="s">
+      <c r="G183" s="51"/>
+      <c r="H183" s="39"/>
+      <c r="I183" s="44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A180" s="116"/>
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="46"/>
-    </row>
-    <row r="181" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A181" s="116"/>
-      <c r="B181" s="48" t="s">
+    <row r="184" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A184" s="42"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="40"/>
+      <c r="G184" s="51"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="45"/>
+    </row>
+    <row r="185" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A185" s="42"/>
+      <c r="B185" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="C181" s="47" t="s">
+      <c r="C185" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="D181" s="47" t="s">
+      <c r="D185" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="E181" s="48"/>
-      <c r="F181" s="47" t="s">
+      <c r="E185" s="39"/>
+      <c r="F185" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="G181" s="51"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="43" t="s">
+      <c r="G185" s="51"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="44" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A182" s="116"/>
-      <c r="B182" s="54"/>
-      <c r="C182" s="54"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="51"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="46"/>
-    </row>
-    <row r="183" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A183" s="116"/>
-      <c r="B183" s="47" t="s">
+    <row r="186" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A186" s="42"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="40"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="40"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="45"/>
+    </row>
+    <row r="187" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A187" s="42"/>
+      <c r="B187" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="C183" s="47" t="s">
+      <c r="C187" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="D183" s="47" t="s">
+      <c r="D187" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="E183" s="48"/>
-      <c r="F183" s="47" t="s">
+      <c r="E187" s="39"/>
+      <c r="F187" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="G183" s="51"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="43"/>
-    </row>
-    <row r="184" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A184" s="116"/>
-      <c r="B184" s="48"/>
-      <c r="C184" s="48"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="51"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="46"/>
-    </row>
-    <row r="185" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A185" s="116"/>
-      <c r="B185" s="48"/>
-      <c r="C185" s="48"/>
-      <c r="D185" s="47" t="s">
+      <c r="G187" s="51"/>
+      <c r="H187" s="39"/>
+      <c r="I187" s="44"/>
+    </row>
+    <row r="188" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A188" s="42"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="39"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="40"/>
+      <c r="G188" s="51"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="45"/>
+    </row>
+    <row r="189" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A189" s="42"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="39"/>
+      <c r="D189" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="E185" s="48"/>
-      <c r="F185" s="47" t="s">
+      <c r="E189" s="39"/>
+      <c r="F189" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="G185" s="51"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="43" t="s">
+      <c r="G189" s="51"/>
+      <c r="H189" s="39"/>
+      <c r="I189" s="44" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A186" s="116"/>
-      <c r="B186" s="54"/>
-      <c r="C186" s="54"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="46"/>
-    </row>
-    <row r="187" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A187" s="116"/>
-      <c r="B187" s="47" t="s">
+    <row r="190" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A190" s="42"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="40"/>
+      <c r="G190" s="51"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="45"/>
+    </row>
+    <row r="191" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A191" s="42"/>
+      <c r="B191" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="C187" s="47" t="s">
+      <c r="C191" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="D187" s="47" t="s">
+      <c r="D191" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="E187" s="48"/>
-      <c r="F187" s="47" t="s">
+      <c r="E191" s="39"/>
+      <c r="F191" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="G187" s="51"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="113" t="s">
+      <c r="G191" s="51"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="46" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A188" s="116"/>
-      <c r="B188" s="48"/>
-      <c r="C188" s="48"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="48"/>
-      <c r="I188" s="46"/>
-    </row>
-    <row r="189" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A189" s="116"/>
-      <c r="B189" s="48"/>
-      <c r="C189" s="48"/>
-      <c r="D189" s="47" t="s">
+    <row r="192" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A192" s="42"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="39"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="45"/>
+    </row>
+    <row r="193" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A193" s="42"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="39"/>
+      <c r="D193" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E189" s="48"/>
-      <c r="F189" s="47" t="s">
+      <c r="E193" s="39"/>
+      <c r="F193" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="G189" s="51"/>
-      <c r="H189" s="48"/>
-      <c r="I189" s="43" t="s">
+      <c r="G193" s="51"/>
+      <c r="H193" s="39"/>
+      <c r="I193" s="44" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A190" s="116"/>
-      <c r="B190" s="54"/>
-      <c r="C190" s="54"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="51"/>
-      <c r="H190" s="48"/>
-      <c r="I190" s="46"/>
-    </row>
-    <row r="191" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A191" s="116"/>
-      <c r="B191" s="107" t="s">
+    <row r="194" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A194" s="42"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="51"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="45"/>
+    </row>
+    <row r="195" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A195" s="42"/>
+      <c r="B195" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="C191" s="47" t="s">
+      <c r="C195" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="D191" s="47" t="s">
+      <c r="D195" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="E191" s="48"/>
-      <c r="F191" s="47" t="s">
+      <c r="E195" s="39"/>
+      <c r="F195" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="G191" s="51"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="43"/>
-    </row>
-    <row r="192" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A192" s="116"/>
-      <c r="B192" s="64"/>
-      <c r="C192" s="54"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="54"/>
-      <c r="I192" s="46"/>
-    </row>
-    <row r="193" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A193" s="116"/>
-      <c r="B193" s="67" t="s">
+      <c r="G195" s="51"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="44"/>
+    </row>
+    <row r="196" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A196" s="42"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="40"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="40"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="40"/>
+      <c r="I196" s="45"/>
+    </row>
+    <row r="197" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A197" s="42"/>
+      <c r="B197" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="C193" s="47" t="s">
+      <c r="C197" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="D193" s="47" t="s">
+      <c r="D197" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="E193" s="48"/>
-      <c r="F193" s="47" t="s">
+      <c r="E197" s="39"/>
+      <c r="F197" s="38" t="s">
         <v>337</v>
       </c>
-      <c r="G193" s="51"/>
-      <c r="H193" s="66" t="s">
+      <c r="G197" s="51"/>
+      <c r="H197" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="I193" s="113" t="s">
+      <c r="I197" s="46" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A194" s="116"/>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="51"/>
-      <c r="H194" s="51"/>
-      <c r="I194" s="46"/>
-    </row>
-    <row r="195" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A195" s="116"/>
-      <c r="B195" s="48"/>
-      <c r="C195" s="48"/>
-      <c r="D195" s="47" t="s">
+    <row r="198" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A198" s="42"/>
+      <c r="B198" s="39"/>
+      <c r="C198" s="39"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="40"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="45"/>
+    </row>
+    <row r="199" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A199" s="42"/>
+      <c r="B199" s="39"/>
+      <c r="C199" s="39"/>
+      <c r="D199" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="E195" s="48"/>
-      <c r="F195" s="47" t="s">
+      <c r="E199" s="39"/>
+      <c r="F199" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="G195" s="51"/>
-      <c r="H195" s="51"/>
-      <c r="I195" s="113" t="s">
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+      <c r="I199" s="46" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A196" s="116"/>
-      <c r="B196" s="54"/>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="112"/>
-      <c r="H196" s="112"/>
-      <c r="I196" s="46"/>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="40"/>
-      <c r="B198" s="40"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="31"/>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="59"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
-      <c r="E199" s="28"/>
-      <c r="F199" s="28"/>
-      <c r="G199" s="28"/>
-      <c r="H199" s="28"/>
-      <c r="I199" s="29"/>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="61"/>
-      <c r="B200" s="49"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="31"/>
+    <row r="200" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A200" s="42"/>
+      <c r="B200" s="39"/>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+      <c r="I200" s="103"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="59"/>
-      <c r="B201" s="47"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="29"/>
+      <c r="A201" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="B201" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="D201" s="30"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="G201" s="30"/>
+      <c r="H201" s="30"/>
+      <c r="I201" s="18"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="60"/>
-      <c r="B202" s="54"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="37"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="30"/>
+      <c r="A202" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="20"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="60"/>
+      <c r="A203" s="57"/>
       <c r="B203" s="47"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="30"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="18"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="60"/>
+      <c r="A204" s="59"/>
       <c r="B204" s="54"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="30"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="20"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="60"/>
-      <c r="B205" s="47"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="30"/>
+      <c r="A205" s="57"/>
+      <c r="B205" s="38"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
+      <c r="F205" s="25"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="18"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="60"/>
-      <c r="B206" s="54"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="30"/>
+      <c r="A206" s="58"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
+      <c r="F206" s="25"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="19"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="60"/>
-      <c r="B207" s="47"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="37"/>
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="30"/>
+      <c r="A207" s="58"/>
+      <c r="B207" s="38"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
+      <c r="F207" s="25"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+      <c r="I207" s="19"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="60"/>
-      <c r="B208" s="54"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37"/>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="30"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="40"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
+      <c r="F208" s="25"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+      <c r="I208" s="19"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="60"/>
-      <c r="B209" s="47"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="37"/>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="30"/>
+      <c r="A209" s="58"/>
+      <c r="B209" s="38"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
+      <c r="F209" s="25"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+      <c r="I209" s="19"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="60"/>
-      <c r="B210" s="54"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="37"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="30"/>
+      <c r="A210" s="58"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+      <c r="I210" s="19"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="60"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="37"/>
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
-      <c r="G211" s="11"/>
-      <c r="H211" s="11"/>
-      <c r="I211" s="30"/>
+      <c r="A211" s="58"/>
+      <c r="B211" s="38"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
+      <c r="F211" s="25"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="19"/>
     </row>
     <row r="212" spans="1:9">
-      <c r="A212" s="60"/>
-      <c r="B212" s="38"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="37"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="11"/>
-      <c r="I212" s="30"/>
+      <c r="A212" s="58"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
+      <c r="F212" s="25"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+      <c r="I212" s="19"/>
     </row>
     <row r="213" spans="1:9">
-      <c r="A213" s="60"/>
-      <c r="B213" s="47"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="37"/>
-      <c r="E213" s="37"/>
-      <c r="F213" s="37"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="11"/>
-      <c r="I213" s="30"/>
+      <c r="A213" s="58"/>
+      <c r="B213" s="38"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
+      <c r="F213" s="25"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="19"/>
     </row>
     <row r="214" spans="1:9">
-      <c r="A214" s="60"/>
-      <c r="B214" s="54"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="37"/>
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="11"/>
-      <c r="H214" s="11"/>
-      <c r="I214" s="30"/>
+      <c r="A214" s="58"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
+      <c r="F214" s="25"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="19"/>
     </row>
     <row r="215" spans="1:9">
-      <c r="A215" s="60"/>
-      <c r="B215" s="47"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="11"/>
-      <c r="I215" s="30"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
+      <c r="F215" s="25"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="19"/>
     </row>
     <row r="216" spans="1:9">
-      <c r="A216" s="60"/>
-      <c r="B216" s="54"/>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-      <c r="G216" s="11"/>
-      <c r="H216" s="11"/>
-      <c r="I216" s="30"/>
+      <c r="A216" s="58"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
+      <c r="F216" s="25"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="19"/>
     </row>
     <row r="217" spans="1:9">
-      <c r="A217" s="60"/>
-      <c r="B217" s="47"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="11"/>
-      <c r="I217" s="30"/>
+      <c r="A217" s="58"/>
+      <c r="B217" s="38"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
+      <c r="F217" s="25"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+      <c r="I217" s="19"/>
     </row>
     <row r="218" spans="1:9">
-      <c r="A218" s="60"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="11"/>
-      <c r="H218" s="11"/>
-      <c r="I218" s="30"/>
+      <c r="A218" s="58"/>
+      <c r="B218" s="40"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
+      <c r="F218" s="25"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+      <c r="I218" s="19"/>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="60"/>
-      <c r="B219" s="47"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="11"/>
-      <c r="I219" s="30"/>
+      <c r="A219" s="58"/>
+      <c r="B219" s="38"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+      <c r="I219" s="19"/>
     </row>
     <row r="220" spans="1:9">
-      <c r="A220" s="60"/>
-      <c r="B220" s="54"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="30"/>
+      <c r="A220" s="58"/>
+      <c r="B220" s="40"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
+      <c r="F220" s="25"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="19"/>
     </row>
     <row r="221" spans="1:9">
-      <c r="A221" s="60"/>
-      <c r="B221" s="47"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="11"/>
-      <c r="I221" s="30"/>
+      <c r="A221" s="58"/>
+      <c r="B221" s="38"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
+      <c r="F221" s="25"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="19"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="60"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
-      <c r="H222" s="11"/>
-      <c r="I222" s="30"/>
+      <c r="A222" s="58"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
+      <c r="F222" s="25"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+      <c r="I222" s="19"/>
     </row>
     <row r="223" spans="1:9">
-      <c r="A223" s="60"/>
-      <c r="B223" s="47"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
-      <c r="H223" s="11"/>
-      <c r="I223" s="30"/>
+      <c r="A223" s="58"/>
+      <c r="B223" s="38"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="19"/>
     </row>
     <row r="224" spans="1:9">
-      <c r="A224" s="60"/>
-      <c r="B224" s="54"/>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="11"/>
-      <c r="I224" s="30"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+      <c r="I224" s="19"/>
     </row>
     <row r="225" spans="1:9">
-      <c r="A225" s="60"/>
-      <c r="B225" s="47"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
-      <c r="I225" s="30"/>
+      <c r="A225" s="58"/>
+      <c r="B225" s="38"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+      <c r="I225" s="19"/>
     </row>
     <row r="226" spans="1:9">
-      <c r="A226" s="60"/>
-      <c r="B226" s="54"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="11"/>
-      <c r="I226" s="30"/>
+      <c r="A226" s="58"/>
+      <c r="B226" s="40"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+      <c r="I226" s="19"/>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="60"/>
-      <c r="B227" s="47"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="11"/>
-      <c r="I227" s="30"/>
+      <c r="A227" s="58"/>
+      <c r="B227" s="38"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+      <c r="I227" s="19"/>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="60"/>
-      <c r="B228" s="54"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="11"/>
-      <c r="I228" s="30"/>
+      <c r="A228" s="58"/>
+      <c r="B228" s="40"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="19"/>
     </row>
     <row r="229" spans="1:9">
-      <c r="A229" s="60"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="11"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11"/>
-      <c r="I229" s="30"/>
+      <c r="A229" s="58"/>
+      <c r="B229" s="38"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+      <c r="I229" s="19"/>
     </row>
     <row r="230" spans="1:9">
-      <c r="A230" s="60"/>
-      <c r="B230" s="54"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
-      <c r="H230" s="11"/>
-      <c r="I230" s="30"/>
+      <c r="A230" s="58"/>
+      <c r="B230" s="40"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="19"/>
     </row>
     <row r="231" spans="1:9">
-      <c r="A231" s="60"/>
-      <c r="B231" s="47"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
-      <c r="I231" s="30"/>
+      <c r="A231" s="58"/>
+      <c r="B231" s="38"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+      <c r="I231" s="19"/>
     </row>
     <row r="232" spans="1:9">
-      <c r="A232" s="60"/>
-      <c r="B232" s="54"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="I232" s="30"/>
+      <c r="A232" s="58"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="19"/>
     </row>
     <row r="233" spans="1:9">
-      <c r="A233" s="60"/>
-      <c r="B233" s="47"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
-      <c r="H233" s="11"/>
-      <c r="I233" s="30"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="38"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+      <c r="I233" s="19"/>
     </row>
     <row r="234" spans="1:9">
-      <c r="A234" s="61"/>
-      <c r="B234" s="49"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
-      <c r="H234" s="14"/>
-      <c r="I234" s="31"/>
+      <c r="A234" s="58"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="19"/>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="60" t="s">
+      <c r="A235" s="58"/>
+      <c r="B235" s="38"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+      <c r="I235" s="19"/>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="58"/>
+      <c r="B236" s="40"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="19"/>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="58"/>
+      <c r="B237" s="38"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="19"/>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="59"/>
+      <c r="B238" s="54"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="20"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B235" s="48" t="s">
+      <c r="B239" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="6"/>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236" s="60"/>
-      <c r="B236" s="54"/>
-      <c r="C236" s="11"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
-      <c r="H236" s="11"/>
-      <c r="I236" s="30"/>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="60"/>
-      <c r="B237" s="47" t="s">
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="4"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="58"/>
+      <c r="B240" s="40"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="19"/>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="58"/>
+      <c r="B241" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
-      <c r="I237" s="30"/>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="60"/>
-      <c r="B238" s="54"/>
-      <c r="C238" s="11"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
-      <c r="H238" s="11"/>
-      <c r="I238" s="30"/>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="60"/>
-      <c r="B239" s="47" t="s">
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="19"/>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="58"/>
+      <c r="B242" s="40"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+      <c r="I242" s="19"/>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="58"/>
+      <c r="B243" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
-      <c r="H239" s="11"/>
-      <c r="I239" s="30"/>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="60"/>
-      <c r="B240" s="54"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
-      <c r="H240" s="11"/>
-      <c r="I240" s="30"/>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="60"/>
-      <c r="B241" s="47" t="s">
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="19"/>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="58"/>
+      <c r="B244" s="40"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+      <c r="I244" s="19"/>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="58"/>
+      <c r="B245" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="30"/>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="60"/>
-      <c r="B242" s="54"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
-      <c r="H242" s="11"/>
-      <c r="I242" s="30"/>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="60"/>
-      <c r="B243" s="47" t="s">
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+      <c r="I245" s="19"/>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="58"/>
+      <c r="B246" s="40"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
+      <c r="I246" s="19"/>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="58"/>
+      <c r="B247" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
-      <c r="H243" s="11"/>
-      <c r="I243" s="30"/>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="60"/>
-      <c r="B244" s="54"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
-      <c r="H244" s="11"/>
-      <c r="I244" s="30"/>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="60"/>
-      <c r="B245" s="47" t="s">
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7"/>
+      <c r="I247" s="19"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="58"/>
+      <c r="B248" s="40"/>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7"/>
+      <c r="I248" s="19"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="58"/>
+      <c r="B249" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
-      <c r="E245" s="11"/>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
-      <c r="I245" s="30"/>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" s="60"/>
-      <c r="B246" s="54"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
-      <c r="H246" s="11"/>
-      <c r="I246" s="30"/>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="60"/>
-      <c r="B247" s="47" t="s">
+      <c r="C249" s="7"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
+      <c r="G249" s="7"/>
+      <c r="H249" s="7"/>
+      <c r="I249" s="19"/>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="58"/>
+      <c r="B250" s="40"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="19"/>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="58"/>
+      <c r="B251" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="30"/>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="60"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
-      <c r="H248" s="11"/>
-      <c r="I248" s="30"/>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="60"/>
-      <c r="B249" s="47" t="s">
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="19"/>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="58"/>
+      <c r="B252" s="40"/>
+      <c r="C252" s="7"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7"/>
+      <c r="I252" s="19"/>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="58"/>
+      <c r="B253" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="30"/>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="60"/>
-      <c r="B250" s="54"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="30"/>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="60"/>
-      <c r="B251" s="47" t="s">
+      <c r="C253" s="7"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="19"/>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="58"/>
+      <c r="B254" s="40"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
+      <c r="H254" s="7"/>
+      <c r="I254" s="19"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="58"/>
+      <c r="B255" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="30"/>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="60"/>
-      <c r="B252" s="54"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="E252" s="11"/>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
-      <c r="H252" s="11"/>
-      <c r="I252" s="30"/>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="60"/>
-      <c r="B253" s="47" t="s">
+      <c r="C255" s="7"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
+      <c r="G255" s="7"/>
+      <c r="H255" s="7"/>
+      <c r="I255" s="19"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="58"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7"/>
+      <c r="I256" s="19"/>
+    </row>
+    <row r="257" spans="1:11">
+      <c r="A257" s="58"/>
+      <c r="B257" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C253" s="11"/>
-      <c r="D253" s="11"/>
-      <c r="E253" s="11"/>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="30"/>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="60"/>
-      <c r="B254" s="54"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="30"/>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="60"/>
-      <c r="B255" s="47" t="s">
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7"/>
+      <c r="I257" s="19"/>
+    </row>
+    <row r="258" spans="1:11">
+      <c r="A258" s="58"/>
+      <c r="B258" s="40"/>
+      <c r="C258" s="7"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7"/>
+      <c r="I258" s="19"/>
+    </row>
+    <row r="259" spans="1:11">
+      <c r="A259" s="58"/>
+      <c r="B259" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="11"/>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="30"/>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="60"/>
-      <c r="B256" s="54"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="30"/>
-    </row>
-    <row r="257" spans="1:11">
-      <c r="A257" s="60"/>
-      <c r="B257" s="47" t="s">
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="19"/>
+    </row>
+    <row r="260" spans="1:11">
+      <c r="A260" s="58"/>
+      <c r="B260" s="40"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7"/>
+      <c r="I260" s="19"/>
+    </row>
+    <row r="261" spans="1:11">
+      <c r="A261" s="58"/>
+      <c r="B261" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C257" s="11"/>
-      <c r="D257" s="11"/>
-      <c r="E257" s="11"/>
-      <c r="F257" s="11"/>
-      <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
-      <c r="I257" s="30"/>
-    </row>
-    <row r="258" spans="1:11">
-      <c r="A258" s="60"/>
-      <c r="B258" s="54"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="30"/>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="60"/>
-      <c r="B259" s="47" t="s">
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="19"/>
+    </row>
+    <row r="262" spans="1:11">
+      <c r="A262" s="58"/>
+      <c r="B262" s="40"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
+      <c r="H262" s="7"/>
+      <c r="I262" s="19"/>
+    </row>
+    <row r="263" spans="1:11">
+      <c r="A263" s="58"/>
+      <c r="B263" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
-      <c r="I259" s="30"/>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="60"/>
-      <c r="B260" s="54"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
-      <c r="I260" s="30"/>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="60"/>
-      <c r="B261" s="47" t="s">
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="7"/>
+      <c r="H263" s="7"/>
+      <c r="I263" s="19"/>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="A264" s="58"/>
+      <c r="B264" s="40"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
+      <c r="G264" s="7"/>
+      <c r="H264" s="7"/>
+      <c r="I264" s="19"/>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="A265" s="58"/>
+      <c r="B265" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="30"/>
-    </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="60"/>
-      <c r="B262" s="54"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="11"/>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="30"/>
-    </row>
-    <row r="263" spans="1:11">
-      <c r="A263" s="60"/>
-      <c r="B263" s="47" t="s">
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
+      <c r="G265" s="7"/>
+      <c r="H265" s="7"/>
+      <c r="I265" s="19"/>
+    </row>
+    <row r="266" spans="1:11">
+      <c r="A266" s="58"/>
+      <c r="B266" s="40"/>
+      <c r="C266" s="7"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7"/>
+      <c r="I266" s="19"/>
+    </row>
+    <row r="267" spans="1:11">
+      <c r="A267" s="58"/>
+      <c r="B267" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="30"/>
-    </row>
-    <row r="264" spans="1:11">
-      <c r="A264" s="60"/>
-      <c r="B264" s="54"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="11"/>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="30"/>
-    </row>
-    <row r="265" spans="1:11">
-      <c r="A265" s="60"/>
-      <c r="B265" s="47" t="s">
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7"/>
+      <c r="I267" s="19"/>
+    </row>
+    <row r="268" spans="1:11">
+      <c r="A268" s="58"/>
+      <c r="B268" s="40"/>
+      <c r="C268" s="7"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
+      <c r="G268" s="7"/>
+      <c r="H268" s="7"/>
+      <c r="I268" s="19"/>
+    </row>
+    <row r="269" spans="1:11">
+      <c r="A269" s="58"/>
+      <c r="B269" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="30"/>
-    </row>
-    <row r="266" spans="1:11">
-      <c r="A266" s="61"/>
-      <c r="B266" s="49"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
-      <c r="H266" s="14"/>
-      <c r="I266" s="31"/>
-    </row>
-    <row r="267" spans="1:11">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1">
-        <v>121</v>
-      </c>
-      <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="1"/>
-      <c r="F267" s="1"/>
-      <c r="G267" s="1"/>
-      <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
-      <c r="J267" s="1"/>
-      <c r="K267" s="1"/>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="1"/>
-      <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="I268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7"/>
+      <c r="I269" s="19"/>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="1"/>
-      <c r="F270" s="1"/>
-      <c r="G270" s="1"/>
-      <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
-      <c r="J270" s="1"/>
-      <c r="K270" s="1"/>
+      <c r="A270" s="59"/>
+      <c r="B270" s="54"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="9"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="20"/>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
+      <c r="B271" s="1">
+        <v>121</v>
+      </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -10816,225 +11305,389 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="5:8">
+    <row r="273" spans="1:11">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="1:11">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="1:11">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="1:11">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="1:11">
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="535">
-    <mergeCell ref="C187:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="A169:A196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B187:B190"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I191:I192"/>
-    <mergeCell ref="I193:I194"/>
-    <mergeCell ref="I195:I196"/>
-    <mergeCell ref="E169:E196"/>
+  <mergeCells count="545">
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="G12:G26"/>
+    <mergeCell ref="H12:H26"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="H169:H172"/>
+    <mergeCell ref="G81:G172"/>
+    <mergeCell ref="E81:E172"/>
+    <mergeCell ref="H145:H154"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="H157:H162"/>
+    <mergeCell ref="H163:H164"/>
+    <mergeCell ref="H165:H166"/>
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="I155:I156"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="I161:I162"/>
+    <mergeCell ref="I163:I164"/>
+    <mergeCell ref="I165:I166"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="I169:I170"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="I147:I148"/>
+    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="I153:I154"/>
+    <mergeCell ref="I127:I128"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="I133:I134"/>
+    <mergeCell ref="I135:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="I113:I114"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="I97:I98"/>
+    <mergeCell ref="I99:I100"/>
+    <mergeCell ref="I101:I102"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="I105:I106"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="F165:F166"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="D169:D170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="D163:D164"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="F133:F134"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
     <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
     <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D176"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C177:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="C183:C186"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="I175:I176"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="I183:I184"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="I187:I188"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G169:G196"/>
-    <mergeCell ref="H193:H196"/>
-    <mergeCell ref="H171:H192"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="F175:F176"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="F181:F182"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="A29:A48"/>
-    <mergeCell ref="C29:C48"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E29:E36"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A201:A234"/>
-    <mergeCell ref="A235:A266"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="H73:H78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="H81:H144"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="H53:H60"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A53:A72"/>
+    <mergeCell ref="C59:C72"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G53:G60"/>
+    <mergeCell ref="G61:G66"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
     <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A81:A172"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="G12:G22"/>
-    <mergeCell ref="H12:H22"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B147:B148"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -11045,320 +11698,218 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
     <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="A205:A238"/>
+    <mergeCell ref="A239:A270"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E33:E40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G33:G40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="A33:A52"/>
+    <mergeCell ref="C33:C52"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G49:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
     <mergeCell ref="F49:F50"/>
     <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
     <mergeCell ref="I49:I50"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H52"/>
     <mergeCell ref="I51:I52"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I61:I62"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="H49:H56"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="A49:A68"/>
-    <mergeCell ref="C55:C68"/>
-    <mergeCell ref="E49:E56"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="G69:G76"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="H77:H140"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E69:E76"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="A77:A168"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="D165:D166"/>
-    <mergeCell ref="F165:F166"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="D169:D170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="I99:I100"/>
-    <mergeCell ref="I101:I102"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="D161:D162"/>
-    <mergeCell ref="D163:D164"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="F133:F134"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="F121:F122"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="I87:I88"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="I113:I114"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="I127:I128"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I133:I134"/>
-    <mergeCell ref="I135:I136"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="I169:I170"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="G77:G168"/>
-    <mergeCell ref="E77:E168"/>
-    <mergeCell ref="H141:H150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="H153:H158"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="H163:H164"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="I153:I154"/>
-    <mergeCell ref="I155:I156"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="I163:I164"/>
-    <mergeCell ref="I165:I166"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="I147:I148"/>
-    <mergeCell ref="I149:I150"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="I175:I176"/>
+    <mergeCell ref="I179:I180"/>
+    <mergeCell ref="I181:I182"/>
+    <mergeCell ref="I183:I184"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="I187:I188"/>
+    <mergeCell ref="I189:I190"/>
+    <mergeCell ref="I191:I192"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G173:G200"/>
+    <mergeCell ref="H197:H200"/>
+    <mergeCell ref="H175:H196"/>
+    <mergeCell ref="F175:F176"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="D197:D198"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="C191:C194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="A173:A200"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="I195:I196"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="I199:I200"/>
+    <mergeCell ref="E173:E200"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:D176"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C181:C184"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
